--- a/2P sheets/all 2P/RUT_Genus_2PSummary.xlsx
+++ b/2P sheets/all 2P/RUT_Genus_2PSummary.xlsx
@@ -671,43 +671,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00070604</v>
+        <v>0.0076</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0076</v>
+        <v>0.0818083961248655</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002632684994475</v>
+        <v>0.0528778255</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02833891275</v>
+        <v>-0.569190801937567</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0566778255</v>
+        <v>-1.13838160387513</v>
       </c>
       <c r="K2" t="n">
-        <v>0.105755651</v>
+        <v>2.1949548116254</v>
       </c>
       <c r="L2" t="n">
-        <v>0.098155651</v>
+        <v>2.11314641550054</v>
       </c>
       <c r="M2" t="n">
-        <v>0.928136227916558</v>
+        <v>0.962728892781039</v>
       </c>
       <c r="N2" t="n">
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0163592751666667</v>
+        <v>0.35219106925009</v>
       </c>
       <c r="P2" t="n">
-        <v>0.154689371319426</v>
+        <v>0.160454815463506</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.621753022117649</v>
+        <v>0.852802082304297</v>
       </c>
     </row>
     <row r="3">
@@ -724,43 +724,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00455932998895</v>
+        <v>0.098155651</v>
       </c>
       <c r="F3" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.098155651</v>
+        <v>2.11314641550054</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002279664994475</v>
+        <v>0.0490778255</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0490778255</v>
+        <v>1.05657320775027</v>
       </c>
       <c r="J3" t="n">
-        <v>0.098155651</v>
+        <v>2.11314641550054</v>
       </c>
       <c r="K3" t="n">
-        <v>0.105755651</v>
+        <v>2.1949548116254</v>
       </c>
       <c r="L3" t="n">
-        <v>0.098155651</v>
+        <v>2.11314641550054</v>
       </c>
       <c r="M3" t="n">
-        <v>0.928136227916558</v>
+        <v>0.962728892781039</v>
       </c>
       <c r="N3" t="n">
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0163592751666667</v>
+        <v>0.35219106925009</v>
       </c>
       <c r="P3" t="n">
-        <v>0.154689371319426</v>
+        <v>0.160454815463506</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.621753022117649</v>
+        <v>0.852802082304297</v>
       </c>
     </row>
   </sheetData>
@@ -844,16 +844,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00045521</v>
+        <v>0.0049</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0049</v>
+        <v>0.0527448869752422</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00882919969605</v>
+        <v>0.0950398245</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.32829849</v>
+        <v>143.469305597417</v>
       </c>
       <c r="L2" t="n">
-        <v>32.016653964</v>
+        <v>344.635672378902</v>
       </c>
       <c r="M2" t="n">
         <v>2.4021561332845</v>
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>16.008326982</v>
+        <v>172.317836189451</v>
       </c>
       <c r="P2" t="n">
         <v>1.20107806664225</v>
@@ -897,16 +897,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0172031893921</v>
+        <v>0.185179649</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.185179649</v>
+        <v>1.99332237890205</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03348661931495</v>
+        <v>0.3604587655</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>13.32829849</v>
+        <v>143.469305597417</v>
       </c>
       <c r="L3" t="n">
-        <v>32.016653964</v>
+        <v>344.635672378902</v>
       </c>
       <c r="M3" t="n">
         <v>2.4021561332845</v>
@@ -927,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>16.008326982</v>
+        <v>172.317836189451</v>
       </c>
       <c r="P3" t="n">
         <v>1.20107806664225</v>
@@ -950,16 +950,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0497700492378</v>
+        <v>0.535737882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.535737882</v>
+        <v>5.76682327233585</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0777633343195</v>
+        <v>0.837064955</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>13.32829849</v>
+        <v>143.469305597417</v>
       </c>
       <c r="L4" t="n">
-        <v>32.016653964</v>
+        <v>344.635672378902</v>
       </c>
       <c r="M4" t="n">
         <v>2.4021561332845</v>
@@ -980,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>16.008326982</v>
+        <v>172.317836189451</v>
       </c>
       <c r="P4" t="n">
         <v>1.20107806664225</v>
@@ -1003,28 +1003,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1057566194012</v>
+        <v>1.138392028</v>
       </c>
       <c r="F5" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>1.138392028</v>
+        <v>12.2539507857912</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2426414217497</v>
+        <v>2.611855993</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.611855993</v>
+        <v>-28.1147039074273</v>
       </c>
       <c r="J5" t="n">
-        <v>-15.671135958</v>
+        <v>-168.688223444564</v>
       </c>
       <c r="K5" t="n">
-        <v>13.32829849</v>
+        <v>143.469305597417</v>
       </c>
       <c r="L5" t="n">
-        <v>32.016653964</v>
+        <v>344.635672378902</v>
       </c>
       <c r="M5" t="n">
         <v>2.4021561332845</v>
@@ -1033,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>16.008326982</v>
+        <v>172.317836189451</v>
       </c>
       <c r="P5" t="n">
         <v>1.20107806664225</v>
@@ -1056,28 +1056,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3795262240982</v>
+        <v>4.085319958</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>8.170639916</v>
+        <v>87.950914058127</v>
       </c>
       <c r="H6" t="n">
-        <v>0.34274381879585</v>
+        <v>3.6893844865</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6893844865</v>
+        <v>39.7135036221744</v>
       </c>
       <c r="J6" t="n">
-        <v>22.136306919</v>
+        <v>238.281021733046</v>
       </c>
       <c r="K6" t="n">
-        <v>13.32829849</v>
+        <v>143.469305597417</v>
       </c>
       <c r="L6" t="n">
-        <v>32.016653964</v>
+        <v>344.635672378902</v>
       </c>
       <c r="M6" t="n">
         <v>2.4021561332845</v>
@@ -1086,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>16.008326982</v>
+        <v>172.317836189451</v>
       </c>
       <c r="P6" t="n">
         <v>1.20107806664225</v>
@@ -1109,28 +1109,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3059614134935</v>
+        <v>3.293449015</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>3.293449015</v>
+        <v>35.4515502152853</v>
       </c>
       <c r="H7" t="n">
-        <v>0.15298070674675</v>
+        <v>1.6467245075</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6467245075</v>
+        <v>17.7257751076426</v>
       </c>
       <c r="J7" t="n">
-        <v>9.880347045</v>
+        <v>106.354650645856</v>
       </c>
       <c r="K7" t="n">
-        <v>13.32829849</v>
+        <v>143.469305597417</v>
       </c>
       <c r="L7" t="n">
-        <v>32.016653964</v>
+        <v>344.635672378902</v>
       </c>
       <c r="M7" t="n">
         <v>2.4021561332845</v>
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>16.008326982</v>
+        <v>172.317836189451</v>
       </c>
       <c r="P7" t="n">
         <v>1.20107806664225</v>
@@ -1229,40 +1229,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00006503</v>
+        <v>0.0007</v>
       </c>
       <c r="F2" t="n">
         <v>-16.1463939720129</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0007</v>
+        <v>0.00753498385360603</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0002841229097625</v>
+        <v>0.00712093425</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0045875604375</v>
+        <v>-0.1149774098493</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.01835024175</v>
+        <v>-0.459909639397201</v>
       </c>
       <c r="K2" t="n">
-        <v>0.170910660125</v>
+        <v>2.05837958288482</v>
       </c>
       <c r="L2" t="n">
-        <v>0.34751698775</v>
+        <v>4.00314694833154</v>
       </c>
       <c r="M2" t="n">
-        <v>2.03332540811576</v>
+        <v>1.94480502120077</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0.115838995916667</v>
+        <v>1.33438231611051</v>
       </c>
       <c r="P2" t="n">
-        <v>0.677775136038588</v>
+        <v>0.648268340400255</v>
       </c>
       <c r="Q2" t="n">
         <v>0.440772829586122</v>
@@ -1282,40 +1282,40 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000503215819525</v>
+        <v>0.0135418685</v>
       </c>
       <c r="F3" t="n">
         <v>16.1463939720129</v>
       </c>
       <c r="G3" t="n">
-        <v>0.013541868125</v>
+        <v>0.364420573196986</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0010844174846625</v>
+        <v>0.01573551525</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0175094319375</v>
+        <v>0.254071828579117</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07003772775</v>
+        <v>1.01628731431647</v>
       </c>
       <c r="K3" t="n">
-        <v>0.170910660125</v>
+        <v>2.05837958288482</v>
       </c>
       <c r="L3" t="n">
-        <v>0.34751698775</v>
+        <v>4.00314694833154</v>
       </c>
       <c r="M3" t="n">
-        <v>2.03332540811576</v>
+        <v>1.94480502120077</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.115838995916667</v>
+        <v>1.33438231611051</v>
       </c>
       <c r="P3" t="n">
-        <v>0.677775136038588</v>
+        <v>0.648268340400255</v>
       </c>
       <c r="Q3" t="n">
         <v>0.440772829586122</v>
@@ -1335,16 +1335,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0016656191498</v>
+        <v>0.017929162</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.017929162</v>
+        <v>0.192994208826695</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0072772653884</v>
+        <v>0.078334396</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1353,22 +1353,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.170910660125</v>
+        <v>2.05837958288482</v>
       </c>
       <c r="L4" t="n">
-        <v>0.34751698775</v>
+        <v>4.00314694833154</v>
       </c>
       <c r="M4" t="n">
-        <v>2.03332540811576</v>
+        <v>1.94480502120077</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.115838995916667</v>
+        <v>1.33438231611051</v>
       </c>
       <c r="P4" t="n">
-        <v>0.677775136038588</v>
+        <v>0.648268340400255</v>
       </c>
       <c r="Q4" t="n">
         <v>0.440772829586122</v>
@@ -1388,40 +1388,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.012888911627</v>
+        <v>0.13873963</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>0.13873963</v>
+        <v>1.49342981700754</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0064444558135</v>
+        <v>0.069369815</v>
       </c>
       <c r="I5" t="n">
-        <v>0.069369815</v>
+        <v>0.746714908503768</v>
       </c>
       <c r="J5" t="n">
-        <v>0.27747926</v>
+        <v>2.98685963401507</v>
       </c>
       <c r="K5" t="n">
-        <v>0.170910660125</v>
+        <v>2.05837958288482</v>
       </c>
       <c r="L5" t="n">
-        <v>0.34751698775</v>
+        <v>4.00314694833154</v>
       </c>
       <c r="M5" t="n">
-        <v>2.03332540811576</v>
+        <v>1.94480502120077</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>0.115838995916667</v>
+        <v>1.33438231611051</v>
       </c>
       <c r="P5" t="n">
-        <v>0.677775136038588</v>
+        <v>0.648268340400255</v>
       </c>
       <c r="Q5" t="n">
         <v>0.440772829586122</v>
@@ -1508,28 +1508,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00022296</v>
+        <v>0.0024</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0024</v>
+        <v>0.0258342303552207</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00011148</v>
+        <v>0.0012</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0012</v>
+        <v>0.0129171151776103</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0012</v>
+        <v>0.0129171151776103</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0024</v>
+        <v>0.0258342303552207</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0012</v>
+        <v>0.0129171151776103</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -1538,7 +1538,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001</v>
+        <v>0.00107642626480086</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -1628,28 +1628,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00025083</v>
+        <v>0.0027</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0027</v>
+        <v>0.0290635091496233</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000125415</v>
+        <v>0.00135</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00135</v>
+        <v>0.0145317545748116</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00135</v>
+        <v>0.0145317545748116</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0027</v>
+        <v>0.0290635091496233</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00135</v>
+        <v>0.0145317545748116</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -1658,7 +1658,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001125</v>
+        <v>0.00121097954790097</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -1748,43 +1748,43 @@
         <v>18.8374596340151</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00045521</v>
+        <v>0.008575</v>
       </c>
       <c r="F2" t="n">
         <v>-45.7481162540366</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008575</v>
+        <v>0.161531216361679</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00302600882595556</v>
+        <v>0.0946557609</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.138434203555556</v>
+        <v>-4.33032275376749</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.07651305333333</v>
+        <v>-64.9548413065124</v>
       </c>
       <c r="K2" t="n">
-        <v>76.2583075574126</v>
+        <v>1144.08699364284</v>
       </c>
       <c r="L2" t="n">
-        <v>351.000364050357</v>
+        <v>5127.21470022038</v>
       </c>
       <c r="M2" t="n">
-        <v>4.60278198262005</v>
+        <v>4.48149024393244</v>
       </c>
       <c r="N2" t="n">
         <v>0.8</v>
       </c>
       <c r="O2" t="n">
-        <v>438.750455062947</v>
+        <v>6409.01837527548</v>
       </c>
       <c r="P2" t="n">
-        <v>5.75347747827507</v>
+        <v>5.60186280491555</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0578074351576503</v>
+        <v>0.0535355589138685</v>
       </c>
     </row>
     <row r="3">
@@ -1801,43 +1801,43 @@
         <v>64.5855758880517</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00559680765191111</v>
+        <v>0.1807365218</v>
       </c>
       <c r="F3" t="n">
         <v>-42.1600287047004</v>
       </c>
       <c r="G3" t="n">
-        <v>0.361473045333333</v>
+        <v>11.6729723444564</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0149423753480876</v>
+        <v>0.436294492136111</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.629970973591782</v>
+        <v>-18.3941883121611</v>
       </c>
       <c r="J3" t="n">
-        <v>-9.44956460387673</v>
+        <v>-275.912824682417</v>
       </c>
       <c r="K3" t="n">
-        <v>76.2583075574126</v>
+        <v>1144.08699364284</v>
       </c>
       <c r="L3" t="n">
-        <v>351.000364050357</v>
+        <v>5127.21470022038</v>
       </c>
       <c r="M3" t="n">
-        <v>4.60278198262005</v>
+        <v>4.48149024393244</v>
       </c>
       <c r="N3" t="n">
         <v>0.8</v>
       </c>
       <c r="O3" t="n">
-        <v>438.750455062947</v>
+        <v>6409.01837527548</v>
       </c>
       <c r="P3" t="n">
-        <v>5.75347747827507</v>
+        <v>5.60186280491555</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0578074351576503</v>
+        <v>0.0535355589138685</v>
       </c>
     </row>
     <row r="4">
@@ -1854,43 +1854,43 @@
         <v>106.745604592752</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0242879430442642</v>
+        <v>0.691852462472222</v>
       </c>
       <c r="F4" t="n">
         <v>19.0168640114819</v>
       </c>
       <c r="G4" t="n">
-        <v>2.59263116457431</v>
+        <v>73.8522093955817</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0379487556330039</v>
+        <v>0.991894574384445</v>
       </c>
       <c r="I4" t="n">
-        <v>0.721666325277792</v>
+        <v>18.8627242347957</v>
       </c>
       <c r="J4" t="n">
-        <v>10.8249948791669</v>
+        <v>282.940863521935</v>
       </c>
       <c r="K4" t="n">
-        <v>76.2583075574126</v>
+        <v>1144.08699364284</v>
       </c>
       <c r="L4" t="n">
-        <v>351.000364050357</v>
+        <v>5127.21470022038</v>
       </c>
       <c r="M4" t="n">
-        <v>4.60278198262005</v>
+        <v>4.48149024393244</v>
       </c>
       <c r="N4" t="n">
         <v>0.8</v>
       </c>
       <c r="O4" t="n">
-        <v>438.750455062947</v>
+        <v>6409.01837527548</v>
       </c>
       <c r="P4" t="n">
-        <v>5.75347747827507</v>
+        <v>5.60186280491555</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0578074351576503</v>
+        <v>0.0535355589138685</v>
       </c>
     </row>
     <row r="5">
@@ -1907,43 +1907,43 @@
         <v>87.7287405812702</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0516095682217436</v>
+        <v>1.29193668629667</v>
       </c>
       <c r="F5" t="n">
         <v>-9.14962325080732</v>
       </c>
       <c r="G5" t="n">
-        <v>4.52764242203671</v>
+        <v>113.339978399546</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0721072866846539</v>
+        <v>1.90386604996976</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.659754506802539</v>
+        <v>-17.419657077226</v>
       </c>
       <c r="J5" t="n">
-        <v>-9.89631760203808</v>
+        <v>-261.29485615839</v>
       </c>
       <c r="K5" t="n">
-        <v>76.2583075574126</v>
+        <v>1144.08699364284</v>
       </c>
       <c r="L5" t="n">
-        <v>351.000364050357</v>
+        <v>5127.21470022038</v>
       </c>
       <c r="M5" t="n">
-        <v>4.60278198262005</v>
+        <v>4.48149024393244</v>
       </c>
       <c r="N5" t="n">
         <v>0.8</v>
       </c>
       <c r="O5" t="n">
-        <v>438.750455062947</v>
+        <v>6409.01837527548</v>
       </c>
       <c r="P5" t="n">
-        <v>5.75347747827507</v>
+        <v>5.60186280491555</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0578074351576503</v>
+        <v>0.0535355589138685</v>
       </c>
     </row>
     <row r="6">
@@ -1960,43 +1960,43 @@
         <v>96.8783638320775</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0926050051475643</v>
+        <v>2.51579541364286</v>
       </c>
       <c r="F6" t="n">
         <v>43.0570505920345</v>
       </c>
       <c r="G6" t="n">
-        <v>8.97142138135714</v>
+        <v>243.726143409965</v>
       </c>
       <c r="H6" t="n">
-        <v>0.120957576394354</v>
+        <v>2.5972424109881</v>
       </c>
       <c r="I6" t="n">
-        <v>5.20807648630159</v>
+        <v>111.829597889692</v>
       </c>
       <c r="J6" t="n">
-        <v>78.1211472945238</v>
+        <v>1677.44396834538</v>
       </c>
       <c r="K6" t="n">
-        <v>76.2583075574126</v>
+        <v>1144.08699364284</v>
       </c>
       <c r="L6" t="n">
-        <v>351.000364050357</v>
+        <v>5127.21470022038</v>
       </c>
       <c r="M6" t="n">
-        <v>4.60278198262005</v>
+        <v>4.48149024393244</v>
       </c>
       <c r="N6" t="n">
         <v>0.8</v>
       </c>
       <c r="O6" t="n">
-        <v>438.750455062947</v>
+        <v>6409.01837527548</v>
       </c>
       <c r="P6" t="n">
-        <v>5.75347747827507</v>
+        <v>5.60186280491555</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0578074351576503</v>
+        <v>0.0535355589138685</v>
       </c>
     </row>
     <row r="7">
@@ -2013,43 +2013,43 @@
         <v>53.8213132400431</v>
       </c>
       <c r="E7" t="n">
-        <v>0.149310147641144</v>
+        <v>2.67868940833333</v>
       </c>
       <c r="F7" t="n">
         <v>43.0570505920344</v>
       </c>
       <c r="G7" t="n">
-        <v>8.03606822611111</v>
+        <v>144.170581718694</v>
       </c>
       <c r="H7" t="n">
-        <v>0.111923294888572</v>
+        <v>1.74050962416667</v>
       </c>
       <c r="I7" t="n">
-        <v>4.81908697044444</v>
+        <v>74.941210943667</v>
       </c>
       <c r="J7" t="n">
-        <v>72.2863045566666</v>
+        <v>1124.11816415501</v>
       </c>
       <c r="K7" t="n">
-        <v>76.2583075574126</v>
+        <v>1144.08699364284</v>
       </c>
       <c r="L7" t="n">
-        <v>351.000364050357</v>
+        <v>5127.21470022038</v>
       </c>
       <c r="M7" t="n">
-        <v>4.60278198262005</v>
+        <v>4.48149024393244</v>
       </c>
       <c r="N7" t="n">
         <v>0.8</v>
       </c>
       <c r="O7" t="n">
-        <v>438.750455062947</v>
+        <v>6409.01837527548</v>
       </c>
       <c r="P7" t="n">
-        <v>5.75347747827507</v>
+        <v>5.60186280491555</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0578074351576503</v>
+        <v>0.0535355589138685</v>
       </c>
     </row>
     <row r="8">
@@ -2066,16 +2066,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.074536442136</v>
+        <v>0.80232984</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.80232984</v>
+        <v>8.63648912809473</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0901465307686</v>
+        <v>0.970360934</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2084,25 +2084,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>76.2583075574126</v>
+        <v>1144.08699364284</v>
       </c>
       <c r="L8" t="n">
-        <v>351.000364050357</v>
+        <v>5127.21470022038</v>
       </c>
       <c r="M8" t="n">
-        <v>4.60278198262005</v>
+        <v>4.48149024393244</v>
       </c>
       <c r="N8" t="n">
         <v>0.8</v>
       </c>
       <c r="O8" t="n">
-        <v>438.750455062947</v>
+        <v>6409.01837527548</v>
       </c>
       <c r="P8" t="n">
-        <v>5.75347747827507</v>
+        <v>5.60186280491555</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0578074351576503</v>
+        <v>0.0535355589138685</v>
       </c>
     </row>
     <row r="9">
@@ -2119,16 +2119,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1057566194012</v>
+        <v>1.138392028</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.138392028</v>
+        <v>12.2539507857912</v>
       </c>
       <c r="H9" t="n">
-        <v>0.12487245382745</v>
+        <v>1.3441598905</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -2137,25 +2137,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>76.2583075574126</v>
+        <v>1144.08699364284</v>
       </c>
       <c r="L9" t="n">
-        <v>351.000364050357</v>
+        <v>5127.21470022038</v>
       </c>
       <c r="M9" t="n">
-        <v>4.60278198262005</v>
+        <v>4.48149024393244</v>
       </c>
       <c r="N9" t="n">
         <v>0.8</v>
       </c>
       <c r="O9" t="n">
-        <v>438.750455062947</v>
+        <v>6409.01837527548</v>
       </c>
       <c r="P9" t="n">
-        <v>5.75347747827507</v>
+        <v>5.60186280491555</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0578074351576503</v>
+        <v>0.0535355589138685</v>
       </c>
     </row>
     <row r="10">
@@ -2172,16 +2172,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1439882882537</v>
+        <v>1.549927753</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.549927753</v>
+        <v>16.6838294187298</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1668757001514</v>
+        <v>1.796293866</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -2190,25 +2190,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>76.2583075574126</v>
+        <v>1144.08699364284</v>
       </c>
       <c r="L10" t="n">
-        <v>351.000364050357</v>
+        <v>5127.21470022038</v>
       </c>
       <c r="M10" t="n">
-        <v>4.60278198262005</v>
+        <v>4.48149024393244</v>
       </c>
       <c r="N10" t="n">
         <v>0.8</v>
       </c>
       <c r="O10" t="n">
-        <v>438.750455062947</v>
+        <v>6409.01837527548</v>
       </c>
       <c r="P10" t="n">
-        <v>5.75347747827507</v>
+        <v>5.60186280491555</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0578074351576503</v>
+        <v>0.0535355589138685</v>
       </c>
     </row>
     <row r="11">
@@ -2225,16 +2225,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1897631120491</v>
+        <v>2.042659979</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.042659979</v>
+        <v>21.9877285145318</v>
       </c>
       <c r="H11" t="n">
-        <v>0.28355613146105</v>
+        <v>3.0522726745</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -2243,25 +2243,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>76.2583075574126</v>
+        <v>1144.08699364284</v>
       </c>
       <c r="L11" t="n">
-        <v>351.000364050357</v>
+        <v>5127.21470022038</v>
       </c>
       <c r="M11" t="n">
-        <v>4.60278198262005</v>
+        <v>4.48149024393244</v>
       </c>
       <c r="N11" t="n">
         <v>0.8</v>
       </c>
       <c r="O11" t="n">
-        <v>438.750455062947</v>
+        <v>6409.01837527548</v>
       </c>
       <c r="P11" t="n">
-        <v>5.75347747827507</v>
+        <v>5.60186280491555</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0578074351576503</v>
+        <v>0.0535355589138685</v>
       </c>
     </row>
     <row r="12">
@@ -2278,43 +2278,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E12" t="n">
-        <v>0.377349150873</v>
+        <v>4.06188537</v>
       </c>
       <c r="F12" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G12" t="n">
-        <v>4.06188537</v>
+        <v>43.7232009687836</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6468874077769</v>
+        <v>6.963265961</v>
       </c>
       <c r="I12" t="n">
-        <v>-6.963265961</v>
+        <v>-74.9544236921421</v>
       </c>
       <c r="J12" t="n">
-        <v>-104.448989415</v>
+        <v>-1124.31635538213</v>
       </c>
       <c r="K12" t="n">
-        <v>76.2583075574126</v>
+        <v>1144.08699364284</v>
       </c>
       <c r="L12" t="n">
-        <v>351.000364050357</v>
+        <v>5127.21470022038</v>
       </c>
       <c r="M12" t="n">
-        <v>4.60278198262005</v>
+        <v>4.48149024393244</v>
       </c>
       <c r="N12" t="n">
         <v>0.8</v>
       </c>
       <c r="O12" t="n">
-        <v>438.750455062947</v>
+        <v>6409.01837527548</v>
       </c>
       <c r="P12" t="n">
-        <v>5.75347747827507</v>
+        <v>5.60186280491555</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0578074351576503</v>
+        <v>0.0535355589138685</v>
       </c>
     </row>
     <row r="13">
@@ -2331,43 +2331,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9164256646808</v>
+        <v>9.864646552</v>
       </c>
       <c r="F13" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G13" t="n">
-        <v>19.729293104</v>
+        <v>212.371292831001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7327119147784</v>
+        <v>7.887103496</v>
       </c>
       <c r="I13" t="n">
-        <v>7.887103496</v>
+        <v>84.8988535629709</v>
       </c>
       <c r="J13" t="n">
-        <v>118.30655244</v>
+        <v>1273.48280344456</v>
       </c>
       <c r="K13" t="n">
-        <v>76.2583075574126</v>
+        <v>1144.08699364284</v>
       </c>
       <c r="L13" t="n">
-        <v>351.000364050357</v>
+        <v>5127.21470022038</v>
       </c>
       <c r="M13" t="n">
-        <v>4.60278198262005</v>
+        <v>4.48149024393244</v>
       </c>
       <c r="N13" t="n">
         <v>0.8</v>
       </c>
       <c r="O13" t="n">
-        <v>438.750455062947</v>
+        <v>6409.01837527548</v>
       </c>
       <c r="P13" t="n">
-        <v>5.75347747827507</v>
+        <v>5.60186280491555</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0578074351576503</v>
+        <v>0.0535355589138685</v>
       </c>
     </row>
     <row r="14">
@@ -2384,16 +2384,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E14" t="n">
-        <v>0.548998164876</v>
+        <v>5.90956044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.90956044</v>
+        <v>63.6120607104413</v>
       </c>
       <c r="H14" t="n">
-        <v>0.599568529777</v>
+        <v>6.45391313</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -2402,25 +2402,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>76.2583075574126</v>
+        <v>1144.08699364284</v>
       </c>
       <c r="L14" t="n">
-        <v>351.000364050357</v>
+        <v>5127.21470022038</v>
       </c>
       <c r="M14" t="n">
-        <v>4.60278198262005</v>
+        <v>4.48149024393244</v>
       </c>
       <c r="N14" t="n">
         <v>0.8</v>
       </c>
       <c r="O14" t="n">
-        <v>438.750455062947</v>
+        <v>6409.01837527548</v>
       </c>
       <c r="P14" t="n">
-        <v>5.75347747827507</v>
+        <v>5.60186280491555</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0578074351576503</v>
+        <v>0.0535355589138685</v>
       </c>
     </row>
     <row r="15">
@@ -2437,16 +2437,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E15" t="n">
-        <v>0.650138894678</v>
+        <v>6.99826582</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>6.99826582</v>
+        <v>75.3311713670614</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7676535004958</v>
+        <v>8.263223902</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -2455,25 +2455,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>76.2583075574126</v>
+        <v>1144.08699364284</v>
       </c>
       <c r="L15" t="n">
-        <v>351.000364050357</v>
+        <v>5127.21470022038</v>
       </c>
       <c r="M15" t="n">
-        <v>4.60278198262005</v>
+        <v>4.48149024393244</v>
       </c>
       <c r="N15" t="n">
         <v>0.8</v>
       </c>
       <c r="O15" t="n">
-        <v>438.750455062947</v>
+        <v>6409.01837527548</v>
       </c>
       <c r="P15" t="n">
-        <v>5.75347747827507</v>
+        <v>5.60186280491555</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0578074351576503</v>
+        <v>0.0535355589138685</v>
       </c>
     </row>
     <row r="16">
@@ -2490,43 +2490,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8851681063136</v>
+        <v>9.528181984</v>
       </c>
       <c r="F16" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G16" t="n">
-        <v>9.528181984</v>
+        <v>102.5638534338</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4425840531568</v>
+        <v>4.764090992</v>
       </c>
       <c r="I16" t="n">
-        <v>4.764090992</v>
+        <v>51.2819267168999</v>
       </c>
       <c r="J16" t="n">
-        <v>71.46136488</v>
+        <v>769.228900753498</v>
       </c>
       <c r="K16" t="n">
-        <v>76.2583075574126</v>
+        <v>1144.08699364284</v>
       </c>
       <c r="L16" t="n">
-        <v>351.000364050357</v>
+        <v>5127.21470022038</v>
       </c>
       <c r="M16" t="n">
-        <v>4.60278198262005</v>
+        <v>4.48149024393244</v>
       </c>
       <c r="N16" t="n">
         <v>0.8</v>
       </c>
       <c r="O16" t="n">
-        <v>438.750455062947</v>
+        <v>6409.01837527548</v>
       </c>
       <c r="P16" t="n">
-        <v>5.75347747827507</v>
+        <v>5.60186280491555</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0578074351576503</v>
+        <v>0.0535355589138685</v>
       </c>
     </row>
   </sheetData>
@@ -2610,16 +2610,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003590757794</v>
+        <v>0.003865186</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003865186</v>
+        <v>0.0416058772874058</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00093685910775</v>
+        <v>0.0100845975</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.020169195</v>
+        <v>0.217106512378902</v>
       </c>
       <c r="L2" t="n">
-        <v>0.016304009</v>
+        <v>0.175500635091496</v>
       </c>
       <c r="M2" t="n">
         <v>0.808361910329093</v>
@@ -2640,7 +2640,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00271733483333333</v>
+        <v>0.0292501058485827</v>
       </c>
       <c r="P2" t="n">
         <v>0.134726985054849</v>
@@ -2663,28 +2663,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0015146424361</v>
+        <v>0.016304009</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.016304009</v>
+        <v>0.175500635091496</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00075732121805</v>
+        <v>0.0081520045</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0081520045</v>
+        <v>0.0877503175457481</v>
       </c>
       <c r="J3" t="n">
-        <v>0.016304009</v>
+        <v>0.175500635091496</v>
       </c>
       <c r="K3" t="n">
-        <v>0.020169195</v>
+        <v>0.217106512378902</v>
       </c>
       <c r="L3" t="n">
-        <v>0.016304009</v>
+        <v>0.175500635091496</v>
       </c>
       <c r="M3" t="n">
         <v>0.808361910329093</v>
@@ -2693,7 +2693,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00271733483333333</v>
+        <v>0.0292501058485827</v>
       </c>
       <c r="P3" t="n">
         <v>0.134726985054849</v>
@@ -2783,28 +2783,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00039947</v>
+        <v>0.0043</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0043</v>
+        <v>0.046286329386437</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000199735</v>
+        <v>0.00215</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00215</v>
+        <v>0.0231431646932185</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00215</v>
+        <v>0.0231431646932185</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0043</v>
+        <v>0.046286329386437</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00215</v>
+        <v>0.0231431646932185</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -2813,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.000179166666666667</v>
+        <v>0.00192859705776821</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -2903,28 +2903,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3276447770115</v>
+        <v>3.526854435</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>3.526854435</v>
+        <v>37.963987459634</v>
       </c>
       <c r="H2" t="n">
-        <v>0.16382238850575</v>
+        <v>1.7634272175</v>
       </c>
       <c r="I2" t="n">
-        <v>1.7634272175</v>
+        <v>18.981993729817</v>
       </c>
       <c r="J2" t="n">
-        <v>1.7634272175</v>
+        <v>18.981993729817</v>
       </c>
       <c r="K2" t="n">
-        <v>3.526854435</v>
+        <v>37.963987459634</v>
       </c>
       <c r="L2" t="n">
-        <v>1.7634272175</v>
+        <v>18.981993729817</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -2933,7 +2933,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.146952268125</v>
+        <v>1.58183281081808</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -3023,16 +3023,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00152356</v>
+        <v>0.0164</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0164</v>
+        <v>0.176533907427341</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0065633618679</v>
+        <v>0.070649751</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.379507991</v>
+        <v>25.6136489881593</v>
       </c>
       <c r="L2" t="n">
-        <v>3.657269688</v>
+        <v>39.3678114962325</v>
       </c>
       <c r="M2" t="n">
         <v>1.53698567175772</v>
@@ -3053,7 +3053,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.219089896</v>
+        <v>13.1226038320775</v>
       </c>
       <c r="P2" t="n">
         <v>0.512328557252574</v>
@@ -3076,16 +3076,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0116031637358</v>
+        <v>0.124899502</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.124899502</v>
+        <v>1.34445104413348</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02482627767815</v>
+        <v>0.2672365735</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.379507991</v>
+        <v>25.6136489881593</v>
       </c>
       <c r="L3" t="n">
-        <v>3.657269688</v>
+        <v>39.3678114962325</v>
       </c>
       <c r="M3" t="n">
         <v>1.53698567175772</v>
@@ -3106,7 +3106,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.219089896</v>
+        <v>13.1226038320775</v>
       </c>
       <c r="P3" t="n">
         <v>0.512328557252574</v>
@@ -3129,16 +3129,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0380493916205</v>
+        <v>0.409573645</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.409573645</v>
+        <v>4.40875828848224</v>
       </c>
       <c r="H4" t="n">
-        <v>0.10396478431405</v>
+        <v>1.1191042445</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -3147,10 +3147,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.379507991</v>
+        <v>25.6136489881593</v>
       </c>
       <c r="L4" t="n">
-        <v>3.657269688</v>
+        <v>39.3678114962325</v>
       </c>
       <c r="M4" t="n">
         <v>1.53698567175772</v>
@@ -3159,7 +3159,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.219089896</v>
+        <v>13.1226038320775</v>
       </c>
       <c r="P4" t="n">
         <v>0.512328557252574</v>
@@ -3182,28 +3182,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1698801770076</v>
+        <v>1.828634844</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>1.828634844</v>
+        <v>19.6839057481163</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0849400885038</v>
+        <v>0.914317422</v>
       </c>
       <c r="I5" t="n">
-        <v>0.914317422</v>
+        <v>9.84195287405813</v>
       </c>
       <c r="J5" t="n">
-        <v>3.657269688</v>
+        <v>39.3678114962325</v>
       </c>
       <c r="K5" t="n">
-        <v>2.379507991</v>
+        <v>25.6136489881593</v>
       </c>
       <c r="L5" t="n">
-        <v>3.657269688</v>
+        <v>39.3678114962325</v>
       </c>
       <c r="M5" t="n">
         <v>1.53698567175772</v>
@@ -3212,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.219089896</v>
+        <v>13.1226038320775</v>
       </c>
       <c r="P5" t="n">
         <v>0.512328557252574</v>
@@ -3302,16 +3302,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0052461142808</v>
+        <v>0.056470552</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.056470552</v>
+        <v>0.607863853606028</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00737932992695</v>
+        <v>0.0794330455</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.649878885</v>
+        <v>6.99546700753498</v>
       </c>
       <c r="L2" t="n">
-        <v>0.736519191</v>
+        <v>7.92808601722282</v>
       </c>
       <c r="M2" t="n">
         <v>1.13331761963616</v>
@@ -3332,7 +3332,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.18412979775</v>
+        <v>1.9820215043057</v>
       </c>
       <c r="P2" t="n">
         <v>0.283329404909039</v>
@@ -3355,16 +3355,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0095125455731</v>
+        <v>0.102395539</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.102395539</v>
+        <v>1.10221247578041</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02756381706785</v>
+        <v>0.2967041665</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -3373,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.649878885</v>
+        <v>6.99546700753498</v>
       </c>
       <c r="L3" t="n">
-        <v>0.736519191</v>
+        <v>7.92808601722282</v>
       </c>
       <c r="M3" t="n">
         <v>1.13331761963616</v>
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.18412979775</v>
+        <v>1.9820215043057</v>
       </c>
       <c r="P3" t="n">
         <v>0.283329404909039</v>
@@ -3408,28 +3408,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0456150885626</v>
+        <v>0.491012794</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>0.491012794</v>
+        <v>5.28539067814855</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0228075442813</v>
+        <v>0.245506397</v>
       </c>
       <c r="I4" t="n">
-        <v>0.245506397</v>
+        <v>2.64269533907427</v>
       </c>
       <c r="J4" t="n">
-        <v>0.736519191</v>
+        <v>7.92808601722282</v>
       </c>
       <c r="K4" t="n">
-        <v>0.649878885</v>
+        <v>6.99546700753498</v>
       </c>
       <c r="L4" t="n">
-        <v>0.736519191</v>
+        <v>7.92808601722282</v>
       </c>
       <c r="M4" t="n">
         <v>1.13331761963616</v>
@@ -3438,7 +3438,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.18412979775</v>
+        <v>1.9820215043057</v>
       </c>
       <c r="P4" t="n">
         <v>0.283329404909039</v>
@@ -3528,40 +3528,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00016584342638</v>
+        <v>0.017851822</v>
       </c>
       <c r="F2" t="n">
         <v>-3.5880875493362</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0017851822</v>
+        <v>0.192161700753498</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000390386379749917</v>
+        <v>0.0530543166833333</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00140074050861111</v>
+        <v>-0.190363533130008</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0112059240688889</v>
+        <v>-1.52290826504007</v>
       </c>
       <c r="K2" t="n">
-        <v>1.20543914200556</v>
+        <v>130.073308473508</v>
       </c>
       <c r="L2" t="n">
-        <v>2.36855925634889</v>
+        <v>255.274612493242</v>
       </c>
       <c r="M2" t="n">
-        <v>1.96489326902741</v>
+        <v>1.96254416443351</v>
       </c>
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57903950423259</v>
+        <v>170.183074995495</v>
       </c>
       <c r="P2" t="n">
-        <v>1.30992884601827</v>
+        <v>1.308362776289</v>
       </c>
       <c r="Q2" t="n">
         <v>0.111364742355769</v>
@@ -3581,40 +3581,40 @@
         <v>14.3523501973448</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000614929333119833</v>
+        <v>0.0882568113666667</v>
       </c>
       <c r="F3" t="n">
         <v>3.5880875493362</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00882568113555556</v>
+        <v>1.2666926640354</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00108657185478442</v>
+        <v>0.127993549733333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00389871494361111</v>
+        <v>0.459252062193518</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0311897195488889</v>
+        <v>3.67401649754814</v>
       </c>
       <c r="K3" t="n">
-        <v>1.20543914200556</v>
+        <v>130.073308473508</v>
       </c>
       <c r="L3" t="n">
-        <v>2.36855925634889</v>
+        <v>255.274612493242</v>
       </c>
       <c r="M3" t="n">
-        <v>1.96489326902741</v>
+        <v>1.96254416443351</v>
       </c>
       <c r="N3" t="n">
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57903950423259</v>
+        <v>170.183074995495</v>
       </c>
       <c r="P3" t="n">
-        <v>1.30992884601827</v>
+        <v>1.308362776289</v>
       </c>
       <c r="Q3" t="n">
         <v>0.111364742355769</v>
@@ -3634,16 +3634,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001558214376449</v>
+        <v>0.1677302881</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01677302881</v>
+        <v>1.80549287513455</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0023816527042605</v>
+        <v>0.25636735245</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -3652,22 +3652,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.20543914200556</v>
+        <v>130.073308473508</v>
       </c>
       <c r="L4" t="n">
-        <v>2.36855925634889</v>
+        <v>255.274612493242</v>
       </c>
       <c r="M4" t="n">
-        <v>1.96489326902741</v>
+        <v>1.96254416443351</v>
       </c>
       <c r="N4" t="n">
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57903950423259</v>
+        <v>170.183074995495</v>
       </c>
       <c r="P4" t="n">
-        <v>1.30992884601827</v>
+        <v>1.308362776289</v>
       </c>
       <c r="Q4" t="n">
         <v>0.111364742355769</v>
@@ -3687,16 +3687,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003205091032072</v>
+        <v>0.3450044168</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03450044168</v>
+        <v>3.71371815715823</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006356950631696</v>
+        <v>0.6842788624</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -3705,22 +3705,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.20543914200556</v>
+        <v>130.073308473508</v>
       </c>
       <c r="L5" t="n">
-        <v>2.36855925634889</v>
+        <v>255.274612493242</v>
       </c>
       <c r="M5" t="n">
-        <v>1.96489326902741</v>
+        <v>1.96254416443351</v>
       </c>
       <c r="N5" t="n">
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57903950423259</v>
+        <v>170.183074995495</v>
       </c>
       <c r="P5" t="n">
-        <v>1.30992884601827</v>
+        <v>1.308362776289</v>
       </c>
       <c r="Q5" t="n">
         <v>0.111364742355769</v>
@@ -3740,16 +3740,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00950881023132</v>
+        <v>1.023553308</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1023553308</v>
+        <v>11.0177966415501</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005486430526751</v>
+        <v>0.5905737919</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.20543914200556</v>
+        <v>130.073308473508</v>
       </c>
       <c r="L6" t="n">
-        <v>2.36855925634889</v>
+        <v>255.274612493242</v>
       </c>
       <c r="M6" t="n">
-        <v>1.96489326902741</v>
+        <v>1.96254416443351</v>
       </c>
       <c r="N6" t="n">
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57903950423259</v>
+        <v>170.183074995495</v>
       </c>
       <c r="P6" t="n">
-        <v>1.30992884601827</v>
+        <v>1.308362776289</v>
       </c>
       <c r="Q6" t="n">
         <v>0.111364742355769</v>
@@ -3793,16 +3793,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001464050822182</v>
+        <v>0.1575942758</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01575942758</v>
+        <v>1.69638617653391</v>
       </c>
       <c r="H7" t="n">
-        <v>0.021221011978211</v>
+        <v>2.2842854659</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -3811,22 +3811,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.20543914200556</v>
+        <v>130.073308473508</v>
       </c>
       <c r="L7" t="n">
-        <v>2.36855925634889</v>
+        <v>255.274612493242</v>
       </c>
       <c r="M7" t="n">
-        <v>1.96489326902741</v>
+        <v>1.96254416443351</v>
       </c>
       <c r="N7" t="n">
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57903950423259</v>
+        <v>170.183074995495</v>
       </c>
       <c r="P7" t="n">
-        <v>1.30992884601827</v>
+        <v>1.308362776289</v>
       </c>
       <c r="Q7" t="n">
         <v>0.111364742355769</v>
@@ -3846,16 +3846,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04097797313424</v>
+        <v>4.410976656</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4410976656</v>
+        <v>47.4809112594187</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04763169031321</v>
+        <v>5.127200249</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.20543914200556</v>
+        <v>130.073308473508</v>
       </c>
       <c r="L8" t="n">
-        <v>2.36855925634889</v>
+        <v>255.274612493242</v>
       </c>
       <c r="M8" t="n">
-        <v>1.96489326902741</v>
+        <v>1.96254416443351</v>
       </c>
       <c r="N8" t="n">
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.57903950423259</v>
+        <v>170.183074995495</v>
       </c>
       <c r="P8" t="n">
-        <v>1.30992884601827</v>
+        <v>1.308362776289</v>
       </c>
       <c r="Q8" t="n">
         <v>0.111364742355769</v>
@@ -3899,40 +3899,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05428540749218</v>
+        <v>5.843423842</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5843423842</v>
+        <v>62.9001489989236</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02714270374609</v>
+        <v>2.921711921</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2921711921</v>
+        <v>31.4500744994618</v>
       </c>
       <c r="J9" t="n">
-        <v>2.3373695368</v>
+        <v>251.600595995694</v>
       </c>
       <c r="K9" t="n">
-        <v>1.20543914200556</v>
+        <v>130.073308473508</v>
       </c>
       <c r="L9" t="n">
-        <v>2.36855925634889</v>
+        <v>255.274612493242</v>
       </c>
       <c r="M9" t="n">
-        <v>1.96489326902741</v>
+        <v>1.96254416443351</v>
       </c>
       <c r="N9" t="n">
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57903950423259</v>
+        <v>170.183074995495</v>
       </c>
       <c r="P9" t="n">
-        <v>1.30992884601827</v>
+        <v>1.308362776289</v>
       </c>
       <c r="Q9" t="n">
         <v>0.111364742355769</v>
@@ -4019,28 +4019,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1539093501501</v>
+        <v>1.656720669</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>1.656720669</v>
+        <v>17.8333764155005</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07695467507505</v>
+        <v>0.8283603345</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8283603345</v>
+        <v>8.91668820775027</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8283603345</v>
+        <v>8.91668820775027</v>
       </c>
       <c r="K2" t="n">
-        <v>1.656720669</v>
+        <v>17.8333764155005</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8283603345</v>
+        <v>8.91668820775027</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -4049,7 +4049,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.069030027875</v>
+        <v>0.743057350645856</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -4139,16 +4139,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.044614618363</v>
+        <v>0.48024347</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.48024347</v>
+        <v>5.16946684607105</v>
       </c>
       <c r="H2" t="n">
-        <v>0.10642396873435</v>
+        <v>1.1455755515</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -4157,10 +4157,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.291151103</v>
+        <v>24.6625522389666</v>
       </c>
       <c r="L2" t="n">
-        <v>1.810907633</v>
+        <v>19.4930853928956</v>
       </c>
       <c r="M2" t="n">
         <v>0.790392056913585</v>
@@ -4169,7 +4169,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.301817938833333</v>
+        <v>3.2488475654826</v>
       </c>
       <c r="P2" t="n">
         <v>0.131732009485598</v>
@@ -4192,28 +4192,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1682333191057</v>
+        <v>1.810907633</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>1.810907633</v>
+        <v>19.4930853928956</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08411665955285</v>
+        <v>0.9054538165</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9054538165</v>
+        <v>9.7465426964478</v>
       </c>
       <c r="J3" t="n">
-        <v>1.810907633</v>
+        <v>19.4930853928956</v>
       </c>
       <c r="K3" t="n">
-        <v>2.291151103</v>
+        <v>24.6625522389666</v>
       </c>
       <c r="L3" t="n">
-        <v>1.810907633</v>
+        <v>19.4930853928956</v>
       </c>
       <c r="M3" t="n">
         <v>0.790392056913585</v>
@@ -4222,7 +4222,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.301817938833333</v>
+        <v>3.2488475654826</v>
       </c>
       <c r="P3" t="n">
         <v>0.131732009485598</v>
@@ -4312,43 +4312,43 @@
         <v>35.880875493362</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000929</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="F2" t="n">
         <v>3.5880875493362</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0333333333333333</v>
+        <v>1.19602918311207</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006327952919525</v>
+        <v>0.111340287666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0227052490833333</v>
+        <v>0.399498699916278</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0681157472499999</v>
+        <v>1.19849609974883</v>
       </c>
       <c r="K2" t="n">
-        <v>1.58240547683333</v>
+        <v>19.9088320464059</v>
       </c>
       <c r="L2" t="n">
-        <v>5.71350970075</v>
+        <v>64.0051828166487</v>
       </c>
       <c r="M2" t="n">
-        <v>3.61064833533294</v>
+        <v>3.21491399733835</v>
       </c>
       <c r="N2" t="n">
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4283774251875</v>
+        <v>16.0012957041622</v>
       </c>
       <c r="P2" t="n">
-        <v>0.902662083833235</v>
+        <v>0.803728499334587</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.529166296559805</v>
+        <v>0.39539154052359</v>
       </c>
     </row>
     <row r="3">
@@ -4365,43 +4365,43 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01172690583905</v>
+        <v>0.189347242</v>
       </c>
       <c r="F3" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3786944835</v>
+        <v>6.11455033369214</v>
       </c>
       <c r="H3" t="n">
-        <v>0.060227495226525</v>
+        <v>0.679862451</v>
       </c>
       <c r="I3" t="n">
-        <v>1.2966091545</v>
+        <v>14.6364359741658</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8898274635</v>
+        <v>43.9093079224973</v>
       </c>
       <c r="K3" t="n">
-        <v>1.58240547683333</v>
+        <v>19.9088320464059</v>
       </c>
       <c r="L3" t="n">
-        <v>5.71350970075</v>
+        <v>64.0051828166487</v>
       </c>
       <c r="M3" t="n">
-        <v>3.61064833533294</v>
+        <v>3.21491399733835</v>
       </c>
       <c r="N3" t="n">
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4283774251875</v>
+        <v>16.0012957041622</v>
       </c>
       <c r="P3" t="n">
-        <v>0.902662083833235</v>
+        <v>0.803728499334587</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.529166296559805</v>
+        <v>0.39539154052359</v>
       </c>
     </row>
     <row r="4">
@@ -4418,43 +4418,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.108728084614</v>
+        <v>1.17037766</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>1.17037766</v>
+        <v>12.5982525296017</v>
       </c>
       <c r="H4" t="n">
-        <v>0.054364042307</v>
+        <v>0.58518883</v>
       </c>
       <c r="I4" t="n">
-        <v>0.58518883</v>
+        <v>6.29912626480086</v>
       </c>
       <c r="J4" t="n">
-        <v>1.75556649</v>
+        <v>18.8973787944026</v>
       </c>
       <c r="K4" t="n">
-        <v>1.58240547683333</v>
+        <v>19.9088320464059</v>
       </c>
       <c r="L4" t="n">
-        <v>5.71350970075</v>
+        <v>64.0051828166487</v>
       </c>
       <c r="M4" t="n">
-        <v>3.61064833533294</v>
+        <v>3.21491399733835</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4283774251875</v>
+        <v>16.0012957041622</v>
       </c>
       <c r="P4" t="n">
-        <v>0.902662083833235</v>
+        <v>0.803728499334587</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.529166296559805</v>
+        <v>0.39539154052359</v>
       </c>
     </row>
   </sheetData>
@@ -4538,43 +4538,43 @@
         <v>229.637603157517</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0011148</v>
+        <v>0.064</v>
       </c>
       <c r="F2" t="n">
         <v>-520.631503408683</v>
       </c>
       <c r="G2" t="n">
-        <v>0.256</v>
+        <v>14.6968066020811</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00416436370024512</v>
+        <v>0.7053128343</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.16809893399916</v>
+        <v>-367.208081295049</v>
       </c>
       <c r="J2" t="n">
-        <v>-17.3447914719933</v>
+        <v>-2937.66465036039</v>
       </c>
       <c r="K2" t="n">
-        <v>67.0565314353722</v>
+        <v>8251.30608648922</v>
       </c>
       <c r="L2" t="n">
-        <v>275.471516947248</v>
+        <v>24641.8094867618</v>
       </c>
       <c r="M2" t="n">
-        <v>4.10804900060694</v>
+        <v>2.98641320882649</v>
       </c>
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>183.647677964832</v>
+        <v>16427.8729911745</v>
       </c>
       <c r="P2" t="n">
-        <v>2.73869933373796</v>
+        <v>1.99094213921766</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.117103365334604</v>
+        <v>0.0898581083093476</v>
       </c>
     </row>
     <row r="3">
@@ -4591,43 +4591,43 @@
         <v>750.2691065662</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00721392740049024</v>
+        <v>1.3466256686</v>
       </c>
       <c r="F3" t="n">
         <v>125.941872981701</v>
       </c>
       <c r="G3" t="n">
-        <v>5.41238686559924</v>
+        <v>1010.33163725963</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0143600127071687</v>
+        <v>1.98257457727283</v>
       </c>
       <c r="I3" t="n">
-        <v>1.80852689638185</v>
+        <v>249.689155587644</v>
       </c>
       <c r="J3" t="n">
-        <v>14.4682151710548</v>
+        <v>1997.51324470115</v>
       </c>
       <c r="K3" t="n">
-        <v>67.0565314353722</v>
+        <v>8251.30608648922</v>
       </c>
       <c r="L3" t="n">
-        <v>275.471516947248</v>
+        <v>24641.8094867618</v>
       </c>
       <c r="M3" t="n">
-        <v>4.10804900060694</v>
+        <v>2.98641320882649</v>
       </c>
       <c r="N3" t="n">
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>183.647677964832</v>
+        <v>16427.8729911745</v>
       </c>
       <c r="P3" t="n">
-        <v>2.73869933373796</v>
+        <v>1.99094213921766</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.117103365334604</v>
+        <v>0.0898581083093476</v>
       </c>
     </row>
     <row r="4">
@@ -4644,43 +4644,43 @@
         <v>624.3272335845</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0215060980138471</v>
+        <v>2.61852348594566</v>
       </c>
       <c r="F4" t="n">
         <v>137.78256189451</v>
       </c>
       <c r="G4" t="n">
-        <v>13.4268426781823</v>
+        <v>1634.81552405649</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0282586830221902</v>
+        <v>3.48415070549599</v>
       </c>
       <c r="I4" t="n">
-        <v>3.89355374256227</v>
+        <v>480.055210229802</v>
       </c>
       <c r="J4" t="n">
-        <v>31.1484299404982</v>
+        <v>3840.44168183842</v>
       </c>
       <c r="K4" t="n">
-        <v>67.0565314353722</v>
+        <v>8251.30608648922</v>
       </c>
       <c r="L4" t="n">
-        <v>275.471516947248</v>
+        <v>24641.8094867618</v>
       </c>
       <c r="M4" t="n">
-        <v>4.10804900060694</v>
+        <v>2.98641320882649</v>
       </c>
       <c r="N4" t="n">
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>183.647677964832</v>
+        <v>16427.8729911745</v>
       </c>
       <c r="P4" t="n">
-        <v>2.73869933373796</v>
+        <v>1.99094213921766</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.117103365334604</v>
+        <v>0.0898581083093476</v>
       </c>
     </row>
     <row r="5">
@@ -4697,43 +4697,43 @@
         <v>486.544671689989</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0350112680305334</v>
+        <v>4.34977792504631</v>
       </c>
       <c r="F5" t="n">
         <v>75.3498385360602</v>
       </c>
       <c r="G5" t="n">
-        <v>17.0345459093661</v>
+        <v>2116.36127246602</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0387949721806483</v>
+        <v>5.67621397872752</v>
       </c>
       <c r="I5" t="n">
-        <v>2.92319488982279</v>
+        <v>427.701806793247</v>
       </c>
       <c r="J5" t="n">
-        <v>23.3855591185824</v>
+        <v>3421.61445434597</v>
       </c>
       <c r="K5" t="n">
-        <v>67.0565314353722</v>
+        <v>8251.30608648922</v>
       </c>
       <c r="L5" t="n">
-        <v>275.471516947248</v>
+        <v>24641.8094867618</v>
       </c>
       <c r="M5" t="n">
-        <v>4.10804900060694</v>
+        <v>2.98641320882649</v>
       </c>
       <c r="N5" t="n">
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>183.647677964832</v>
+        <v>16427.8729911745</v>
       </c>
       <c r="P5" t="n">
-        <v>2.73869933373796</v>
+        <v>1.99094213921766</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.117103365334604</v>
+        <v>0.0898581083093476</v>
       </c>
     </row>
     <row r="6">
@@ -4750,43 +4750,43 @@
         <v>411.194833153929</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0425786763307631</v>
+        <v>7.00265003240872</v>
       </c>
       <c r="F6" t="n">
         <v>290.635091496233</v>
       </c>
       <c r="G6" t="n">
-        <v>17.5081317097433</v>
+        <v>2879.45351171166</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0560811012460735</v>
+        <v>5.59856800042936</v>
       </c>
       <c r="I6" t="n">
-        <v>16.299135991862</v>
+        <v>1627.14032305267</v>
       </c>
       <c r="J6" t="n">
-        <v>130.393087934896</v>
+        <v>13017.1225844213</v>
       </c>
       <c r="K6" t="n">
-        <v>67.0565314353722</v>
+        <v>8251.30608648922</v>
       </c>
       <c r="L6" t="n">
-        <v>275.471516947248</v>
+        <v>24641.8094867618</v>
       </c>
       <c r="M6" t="n">
-        <v>4.10804900060694</v>
+        <v>2.98641320882649</v>
       </c>
       <c r="N6" t="n">
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>183.647677964832</v>
+        <v>16427.8729911745</v>
       </c>
       <c r="P6" t="n">
-        <v>2.73869933373796</v>
+        <v>1.99094213921766</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.117103365334604</v>
+        <v>0.0898581083093476</v>
       </c>
     </row>
     <row r="7">
@@ -4803,43 +4803,43 @@
         <v>120.559741657696</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0695835261613839</v>
+        <v>4.19448596845</v>
       </c>
       <c r="F7" t="n">
         <v>88.2669537136706</v>
       </c>
       <c r="G7" t="n">
-        <v>8.388971937648</v>
+        <v>505.686144743165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0874942474620336</v>
+        <v>2.948198060475</v>
       </c>
       <c r="I7" t="n">
-        <v>7.72285069094376</v>
+        <v>260.22846174268</v>
       </c>
       <c r="J7" t="n">
-        <v>61.7828055275501</v>
+        <v>2081.82769394144</v>
       </c>
       <c r="K7" t="n">
-        <v>67.0565314353722</v>
+        <v>8251.30608648922</v>
       </c>
       <c r="L7" t="n">
-        <v>275.471516947248</v>
+        <v>24641.8094867618</v>
       </c>
       <c r="M7" t="n">
-        <v>4.10804900060694</v>
+        <v>2.98641320882649</v>
       </c>
       <c r="N7" t="n">
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>183.647677964832</v>
+        <v>16427.8729911745</v>
       </c>
       <c r="P7" t="n">
-        <v>2.73869933373796</v>
+        <v>1.99094213921766</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.117103365334604</v>
+        <v>0.0898581083093476</v>
       </c>
     </row>
     <row r="8">
@@ -4856,43 +4856,43 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E8" t="n">
-        <v>0.105404968762683</v>
+        <v>1.7019101525</v>
       </c>
       <c r="F8" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G8" t="n">
-        <v>3.4038203045</v>
+        <v>54.9594236544672</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0904624332858333</v>
+        <v>1.6638710915</v>
       </c>
       <c r="I8" t="n">
-        <v>0.973761391666667</v>
+        <v>17.9103454413348</v>
       </c>
       <c r="J8" t="n">
-        <v>7.79009113333333</v>
+        <v>143.282763530678</v>
       </c>
       <c r="K8" t="n">
-        <v>67.0565314353722</v>
+        <v>8251.30608648922</v>
       </c>
       <c r="L8" t="n">
-        <v>275.471516947248</v>
+        <v>24641.8094867618</v>
       </c>
       <c r="M8" t="n">
-        <v>4.10804900060694</v>
+        <v>2.98641320882649</v>
       </c>
       <c r="N8" t="n">
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>183.647677964832</v>
+        <v>16427.8729911745</v>
       </c>
       <c r="P8" t="n">
-        <v>2.73869933373796</v>
+        <v>1.99094213921766</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.117103365334604</v>
+        <v>0.0898581083093476</v>
       </c>
     </row>
     <row r="9">
@@ -4909,43 +4909,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0755198978089833</v>
+        <v>1.6258320305</v>
       </c>
       <c r="F9" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G9" t="n">
-        <v>1.62583203033333</v>
+        <v>35.0017659956943</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0377599489044917</v>
+        <v>0.81291601525</v>
       </c>
       <c r="I9" t="n">
-        <v>0.812916015166667</v>
+        <v>17.5008829978471</v>
       </c>
       <c r="J9" t="n">
-        <v>6.50332812133333</v>
+        <v>140.007063982777</v>
       </c>
       <c r="K9" t="n">
-        <v>67.0565314353722</v>
+        <v>8251.30608648922</v>
       </c>
       <c r="L9" t="n">
-        <v>275.471516947248</v>
+        <v>24641.8094867618</v>
       </c>
       <c r="M9" t="n">
-        <v>4.10804900060694</v>
+        <v>2.98641320882649</v>
       </c>
       <c r="N9" t="n">
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>183.647677964832</v>
+        <v>16427.8729911745</v>
       </c>
       <c r="P9" t="n">
-        <v>2.73869933373796</v>
+        <v>1.99094213921766</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.117103365334604</v>
+        <v>0.0898581083093476</v>
       </c>
     </row>
   </sheetData>
@@ -5029,16 +5029,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0053765245138</v>
+        <v>0.057874322</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.057874322</v>
+        <v>0.622974402583423</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00852347359965</v>
+        <v>0.0917489085</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.183497817</v>
+        <v>1.97521869752422</v>
       </c>
       <c r="L2" t="n">
-        <v>0.125623495</v>
+        <v>1.3522442949408</v>
       </c>
       <c r="M2" t="n">
         <v>0.684604847369928</v>
@@ -5059,7 +5059,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0209372491666667</v>
+        <v>0.225374049156799</v>
       </c>
       <c r="P2" t="n">
         <v>0.114100807894988</v>
@@ -5082,28 +5082,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0116704226855</v>
+        <v>0.125623495</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.125623495</v>
+        <v>1.3522442949408</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00583521134275</v>
+        <v>0.0628117475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0628117475</v>
+        <v>0.676122147470398</v>
       </c>
       <c r="J3" t="n">
-        <v>0.125623495</v>
+        <v>1.3522442949408</v>
       </c>
       <c r="K3" t="n">
-        <v>0.183497817</v>
+        <v>1.97521869752422</v>
       </c>
       <c r="L3" t="n">
-        <v>0.125623495</v>
+        <v>1.3522442949408</v>
       </c>
       <c r="M3" t="n">
         <v>0.684604847369928</v>
@@ -5112,7 +5112,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0209372491666667</v>
+        <v>0.225374049156799</v>
       </c>
       <c r="P3" t="n">
         <v>0.114100807894988</v>
@@ -5202,28 +5202,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.100369504659</v>
+        <v>1.08040371</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>1.08040371</v>
+        <v>11.6297493003229</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0501847523295</v>
+        <v>0.540201855</v>
       </c>
       <c r="I2" t="n">
-        <v>0.540201855</v>
+        <v>5.81487465016146</v>
       </c>
       <c r="J2" t="n">
-        <v>0.540201855</v>
+        <v>5.81487465016146</v>
       </c>
       <c r="K2" t="n">
-        <v>1.08040371</v>
+        <v>11.6297493003229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.540201855</v>
+        <v>5.81487465016146</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -5232,7 +5232,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04501682125</v>
+        <v>0.484572887513455</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -5322,28 +5322,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1424484911917</v>
+        <v>1.533352973</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>1.533352973</v>
+        <v>16.5054141334769</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07122424559585</v>
+        <v>0.7666764865</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7666764865</v>
+        <v>8.25270706673843</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7666764865</v>
+        <v>8.25270706673843</v>
       </c>
       <c r="K2" t="n">
-        <v>1.533352973</v>
+        <v>16.5054141334769</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7666764865</v>
+        <v>8.25270706673843</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -5352,7 +5352,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0638897072083333</v>
+        <v>0.687725588894869</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -5442,28 +5442,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0105702218276</v>
+        <v>0.113780644</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.227561288</v>
+        <v>2.44952947255113</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0134327078155</v>
+        <v>0.144593195</v>
       </c>
       <c r="I2" t="n">
-        <v>0.144593195</v>
+        <v>1.55643912809473</v>
       </c>
       <c r="J2" t="n">
-        <v>0.28918639</v>
+        <v>3.11287825618945</v>
       </c>
       <c r="K2" t="n">
-        <v>0.402967034</v>
+        <v>4.33764299246502</v>
       </c>
       <c r="L2" t="n">
-        <v>0.464592136</v>
+        <v>5.00099177610334</v>
       </c>
       <c r="M2" t="n">
         <v>1.15292839562653</v>
@@ -5472,7 +5472,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0774320226666667</v>
+        <v>0.833498629350556</v>
       </c>
       <c r="P2" t="n">
         <v>0.192154732604421</v>
@@ -5495,28 +5495,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0162951938034</v>
+        <v>0.175405746</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.175405746</v>
+        <v>1.88811351991389</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0081475969017</v>
+        <v>0.087702873</v>
       </c>
       <c r="I3" t="n">
-        <v>0.087702873</v>
+        <v>0.944056759956943</v>
       </c>
       <c r="J3" t="n">
-        <v>0.175405746</v>
+        <v>1.88811351991389</v>
       </c>
       <c r="K3" t="n">
-        <v>0.402967034</v>
+        <v>4.33764299246502</v>
       </c>
       <c r="L3" t="n">
-        <v>0.464592136</v>
+        <v>5.00099177610334</v>
       </c>
       <c r="M3" t="n">
         <v>1.15292839562653</v>
@@ -5525,7 +5525,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0774320226666667</v>
+        <v>0.833498629350556</v>
       </c>
       <c r="P3" t="n">
         <v>0.192154732604421</v>
@@ -5615,16 +5615,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0036514640422</v>
+        <v>0.039305318</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.039305318</v>
+        <v>0.423092766415501</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02338933810265</v>
+        <v>0.2517689785</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -5633,10 +5633,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.503537957</v>
+        <v>5.42021482238967</v>
       </c>
       <c r="L2" t="n">
-        <v>0.464232639</v>
+        <v>4.99712205597417</v>
       </c>
       <c r="M2" t="n">
         <v>0.921941697833119</v>
@@ -5645,7 +5645,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0773721065</v>
+        <v>0.832853675995694</v>
       </c>
       <c r="P2" t="n">
         <v>0.153656949638853</v>
@@ -5668,28 +5668,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0431272121631</v>
+        <v>0.464232639</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.464232639</v>
+        <v>4.99712205597417</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02156360608155</v>
+        <v>0.2321163195</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2321163195</v>
+        <v>2.49856102798708</v>
       </c>
       <c r="J3" t="n">
-        <v>0.464232639</v>
+        <v>4.99712205597417</v>
       </c>
       <c r="K3" t="n">
-        <v>0.503537957</v>
+        <v>5.42021482238967</v>
       </c>
       <c r="L3" t="n">
-        <v>0.464232639</v>
+        <v>4.99712205597417</v>
       </c>
       <c r="M3" t="n">
         <v>0.921941697833119</v>
@@ -5698,7 +5698,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0773721065</v>
+        <v>0.832853675995694</v>
       </c>
       <c r="P3" t="n">
         <v>0.153656949638853</v>
@@ -5788,16 +5788,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0236637064079</v>
+        <v>0.254722351</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.254722351</v>
+        <v>2.74189828848224</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03418024676015</v>
+        <v>0.3679251535</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -5806,10 +5806,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.013744828</v>
+        <v>53.9692661786868</v>
       </c>
       <c r="L2" t="n">
-        <v>6.937868686</v>
+        <v>74.6810407534984</v>
       </c>
       <c r="M2" t="n">
         <v>1.38376980161704</v>
@@ -5818,7 +5818,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>2.31262289533333</v>
+        <v>24.8936802511661</v>
       </c>
       <c r="P2" t="n">
         <v>0.461256600539012</v>
@@ -5841,16 +5841,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0446967871124</v>
+        <v>0.481127956</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.481127956</v>
+        <v>5.17898768568353</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0599245938243</v>
+        <v>0.645044067</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -5859,10 +5859,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5.013744828</v>
+        <v>53.9692661786868</v>
       </c>
       <c r="L3" t="n">
-        <v>6.937868686</v>
+        <v>74.6810407534984</v>
       </c>
       <c r="M3" t="n">
         <v>1.38376980161704</v>
@@ -5871,7 +5871,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>2.31262289533333</v>
+        <v>24.8936802511661</v>
       </c>
       <c r="P3" t="n">
         <v>0.461256600539012</v>
@@ -5894,16 +5894,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0751524005362</v>
+        <v>0.808960178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.808960178</v>
+        <v>8.7078598277718</v>
       </c>
       <c r="H4" t="n">
-        <v>0.19870820050045</v>
+        <v>2.1389472605</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -5912,10 +5912,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5.013744828</v>
+        <v>53.9692661786868</v>
       </c>
       <c r="L4" t="n">
-        <v>6.937868686</v>
+        <v>74.6810407534984</v>
       </c>
       <c r="M4" t="n">
         <v>1.38376980161704</v>
@@ -5924,7 +5924,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>2.31262289533333</v>
+        <v>24.8936802511661</v>
       </c>
       <c r="P4" t="n">
         <v>0.461256600539012</v>
@@ -5947,28 +5947,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3222640004647</v>
+        <v>3.468934343</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>3.468934343</v>
+        <v>37.3405203767492</v>
       </c>
       <c r="H5" t="n">
-        <v>0.16113200023235</v>
+        <v>1.7344671715</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7344671715</v>
+        <v>18.6702601883746</v>
       </c>
       <c r="J5" t="n">
-        <v>6.937868686</v>
+        <v>74.6810407534984</v>
       </c>
       <c r="K5" t="n">
-        <v>5.013744828</v>
+        <v>53.9692661786868</v>
       </c>
       <c r="L5" t="n">
-        <v>6.937868686</v>
+        <v>74.6810407534984</v>
       </c>
       <c r="M5" t="n">
         <v>1.38376980161704</v>
@@ -5977,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>2.31262289533333</v>
+        <v>24.8936802511661</v>
       </c>
       <c r="P5" t="n">
         <v>0.461256600539012</v>
@@ -6067,28 +6067,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0018149053622</v>
+        <v>0.019536118</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.019536118</v>
+        <v>0.210291905274489</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009074526811</v>
+        <v>0.009768059</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009768059</v>
+        <v>0.105145952637244</v>
       </c>
       <c r="J2" t="n">
-        <v>0.009768059</v>
+        <v>0.105145952637244</v>
       </c>
       <c r="K2" t="n">
-        <v>0.019536118</v>
+        <v>0.210291905274489</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009768059</v>
+        <v>0.105145952637244</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -6097,7 +6097,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.000814004916666667</v>
+        <v>0.00876216271977036</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -6187,40 +6187,40 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0056384417572</v>
+        <v>0.060693668</v>
       </c>
       <c r="F2" t="n">
         <v>-37.6749192680302</v>
       </c>
       <c r="G2" t="n">
-        <v>0.121387336</v>
+        <v>1.30664516684607</v>
       </c>
       <c r="H2" t="n">
-        <v>0.012181018202325</v>
+        <v>0.3074721585</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.458918877375</v>
+        <v>-11.5839887486545</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.8356755095</v>
+        <v>-46.3359549946179</v>
       </c>
       <c r="K2" t="n">
-        <v>3.194706230125</v>
+        <v>58.4472926533908</v>
       </c>
       <c r="L2" t="n">
-        <v>9.38041020275</v>
+        <v>135.19108613563</v>
       </c>
       <c r="M2" t="n">
-        <v>2.93623561199334</v>
+        <v>2.31304274326874</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>3.12680340091667</v>
+        <v>45.0636953785433</v>
       </c>
       <c r="P2" t="n">
-        <v>0.978745203997778</v>
+        <v>0.771014247756246</v>
       </c>
       <c r="Q2" t="n">
         <v>0.17058301367699</v>
@@ -6240,40 +6240,40 @@
         <v>59.2034445640474</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01872359464745</v>
+        <v>0.554250649</v>
       </c>
       <c r="F3" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G3" t="n">
-        <v>1.10850129775</v>
+        <v>32.8135475726588</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0312988306902125</v>
+        <v>0.5722953105</v>
       </c>
       <c r="I3" t="n">
-        <v>1.010726502375</v>
+        <v>18.4810111033369</v>
       </c>
       <c r="J3" t="n">
-        <v>4.0429060095</v>
+        <v>73.9240444133477</v>
       </c>
       <c r="K3" t="n">
-        <v>3.194706230125</v>
+        <v>58.4472926533908</v>
       </c>
       <c r="L3" t="n">
-        <v>9.38041020275</v>
+        <v>135.19108613563</v>
       </c>
       <c r="M3" t="n">
-        <v>2.93623561199334</v>
+        <v>2.31304274326874</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>3.12680340091667</v>
+        <v>45.0636953785433</v>
       </c>
       <c r="P3" t="n">
-        <v>0.978745203997778</v>
+        <v>0.771014247756246</v>
       </c>
       <c r="Q3" t="n">
         <v>0.17058301367699</v>
@@ -6293,40 +6293,40 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E4" t="n">
-        <v>0.043874066732975</v>
+        <v>0.590339972</v>
       </c>
       <c r="F4" t="n">
         <v>16.1463939720129</v>
       </c>
       <c r="G4" t="n">
-        <v>1.180679944375</v>
+        <v>15.8864362755651</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0583602273018875</v>
+        <v>0.687238812</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9423072223125</v>
+        <v>11.0964286114101</v>
       </c>
       <c r="J4" t="n">
-        <v>3.76922888925</v>
+        <v>44.3857144456405</v>
       </c>
       <c r="K4" t="n">
-        <v>3.194706230125</v>
+        <v>58.4472926533908</v>
       </c>
       <c r="L4" t="n">
-        <v>9.38041020275</v>
+        <v>135.19108613563</v>
       </c>
       <c r="M4" t="n">
-        <v>2.93623561199334</v>
+        <v>2.31304274326874</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>3.12680340091667</v>
+        <v>45.0636953785433</v>
       </c>
       <c r="P4" t="n">
-        <v>0.978745203997778</v>
+        <v>0.771014247756246</v>
       </c>
       <c r="Q4" t="n">
         <v>0.17058301367699</v>
@@ -6346,40 +6346,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0728463878708</v>
+        <v>0.784137652</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>0.784137652</v>
+        <v>8.44066363832077</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0364231939354</v>
+        <v>0.392068826</v>
       </c>
       <c r="I5" t="n">
-        <v>0.392068826</v>
+        <v>4.22033181916039</v>
       </c>
       <c r="J5" t="n">
-        <v>1.568275304</v>
+        <v>16.8813272766415</v>
       </c>
       <c r="K5" t="n">
-        <v>3.194706230125</v>
+        <v>58.4472926533908</v>
       </c>
       <c r="L5" t="n">
-        <v>9.38041020275</v>
+        <v>135.19108613563</v>
       </c>
       <c r="M5" t="n">
-        <v>2.93623561199334</v>
+        <v>2.31304274326874</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>3.12680340091667</v>
+        <v>45.0636953785433</v>
       </c>
       <c r="P5" t="n">
-        <v>0.978745203997778</v>
+        <v>0.771014247756246</v>
       </c>
       <c r="Q5" t="n">
         <v>0.17058301367699</v>
@@ -6466,28 +6466,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0016091384581</v>
+        <v>0.017321189</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.017321189</v>
+        <v>0.186449827771798</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00080456922905</v>
+        <v>0.0086605945</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0086605945</v>
+        <v>0.0932249138858988</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0086605945</v>
+        <v>0.0932249138858988</v>
       </c>
       <c r="K2" t="n">
-        <v>0.017321189</v>
+        <v>0.186449827771798</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0086605945</v>
+        <v>0.0932249138858988</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -6496,7 +6496,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.000721716208333333</v>
+        <v>0.0077687428238249</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -6586,43 +6586,43 @@
         <v>25.1166128453534</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003716</v>
+        <v>0.00466666666666667</v>
       </c>
       <c r="F2" t="n">
         <v>-69.967707212056</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00933333333333333</v>
+        <v>0.117210859944983</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0019583451918</v>
+        <v>0.0444686469166667</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.137020923</v>
+        <v>-3.11136926758163</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.096167384</v>
+        <v>-24.890954140653</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5270170718</v>
+        <v>35.5855549708408</v>
       </c>
       <c r="L2" t="n">
-        <v>7.33988041306667</v>
+        <v>102.436715569812</v>
       </c>
       <c r="M2" t="n">
-        <v>2.9045630498406</v>
+        <v>2.87860385074084</v>
       </c>
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>4.89325360871111</v>
+        <v>68.2911437132082</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9363753665604</v>
+        <v>1.91906923382723</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.110942057073188</v>
+        <v>0.106660093744653</v>
       </c>
     </row>
     <row r="3">
@@ -6639,43 +6639,43 @@
         <v>95.0843200574094</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0035450903836</v>
+        <v>0.0842706271666667</v>
       </c>
       <c r="F3" t="n">
         <v>47.7215644061715</v>
       </c>
       <c r="G3" t="n">
-        <v>0.337082508666667</v>
+        <v>8.01281528495395</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0061934077772</v>
+        <v>0.0944813721833333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.295559108133333</v>
+        <v>4.5087988878304</v>
       </c>
       <c r="J3" t="n">
-        <v>2.36447286506667</v>
+        <v>36.0703911026432</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5270170718</v>
+        <v>35.5855549708408</v>
       </c>
       <c r="L3" t="n">
-        <v>7.33988041306667</v>
+        <v>102.436715569812</v>
       </c>
       <c r="M3" t="n">
-        <v>2.9045630498406</v>
+        <v>2.87860385074084</v>
       </c>
       <c r="N3" t="n">
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>4.89325360871111</v>
+        <v>68.2911437132082</v>
       </c>
       <c r="P3" t="n">
-        <v>1.9363753665604</v>
+        <v>1.91906923382723</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.110942057073188</v>
+        <v>0.106660093744653</v>
       </c>
     </row>
     <row r="4">
@@ -6692,43 +6692,43 @@
         <v>47.3627556512379</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0088417251708</v>
+        <v>0.1046921172</v>
       </c>
       <c r="F4" t="n">
         <v>-1.07642626480087</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4187684688</v>
+        <v>4.95850716555436</v>
       </c>
       <c r="H4" t="n">
-        <v>0.012875966012</v>
+        <v>0.15473563185</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0138600280000001</v>
+        <v>-0.166561498223897</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.110880224</v>
+        <v>-1.33249198579118</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5270170718</v>
+        <v>35.5855549708408</v>
       </c>
       <c r="L4" t="n">
-        <v>7.33988041306667</v>
+        <v>102.436715569812</v>
       </c>
       <c r="M4" t="n">
-        <v>2.9045630498406</v>
+        <v>2.87860385074084</v>
       </c>
       <c r="N4" t="n">
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>4.89325360871111</v>
+        <v>68.2911437132082</v>
       </c>
       <c r="P4" t="n">
-        <v>1.9363753665604</v>
+        <v>1.91906923382723</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.110942057073188</v>
+        <v>0.106660093744653</v>
       </c>
     </row>
     <row r="5">
@@ -6745,43 +6745,43 @@
         <v>48.4391819160388</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0169102068532</v>
+        <v>0.2047791465</v>
       </c>
       <c r="F5" t="n">
         <v>16.1463939720129</v>
       </c>
       <c r="G5" t="n">
-        <v>0.819116586</v>
+        <v>9.91933432992465</v>
       </c>
       <c r="H5" t="n">
-        <v>0.015445858712</v>
+        <v>0.21526506225</v>
       </c>
       <c r="I5" t="n">
-        <v>0.24939492</v>
+        <v>3.47575450349838</v>
       </c>
       <c r="J5" t="n">
-        <v>1.99515936</v>
+        <v>27.8060360279871</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5270170718</v>
+        <v>35.5855549708408</v>
       </c>
       <c r="L5" t="n">
-        <v>7.33988041306667</v>
+        <v>102.436715569812</v>
       </c>
       <c r="M5" t="n">
-        <v>2.9045630498406</v>
+        <v>2.87860385074084</v>
       </c>
       <c r="N5" t="n">
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>4.89325360871111</v>
+        <v>68.2911437132082</v>
       </c>
       <c r="P5" t="n">
-        <v>1.9363753665604</v>
+        <v>1.91906923382723</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.110942057073188</v>
+        <v>0.106660093744653</v>
       </c>
     </row>
     <row r="6">
@@ -6798,43 +6798,43 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0139815105708</v>
+        <v>0.225750978</v>
       </c>
       <c r="F6" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G6" t="n">
-        <v>0.451501956</v>
+        <v>7.29012846071044</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0122626730986</v>
+        <v>0.169623797</v>
       </c>
       <c r="I6" t="n">
-        <v>0.263997268</v>
+        <v>3.65175020452099</v>
       </c>
       <c r="J6" t="n">
-        <v>2.111978144</v>
+        <v>29.2140016361679</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5270170718</v>
+        <v>35.5855549708408</v>
       </c>
       <c r="L6" t="n">
-        <v>7.33988041306667</v>
+        <v>102.436715569812</v>
       </c>
       <c r="M6" t="n">
-        <v>2.9045630498406</v>
+        <v>2.87860385074084</v>
       </c>
       <c r="N6" t="n">
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>4.89325360871111</v>
+        <v>68.2911437132082</v>
       </c>
       <c r="P6" t="n">
-        <v>1.9363753665604</v>
+        <v>1.91906923382723</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.110942057073188</v>
+        <v>0.106660093744653</v>
       </c>
     </row>
     <row r="7">
@@ -6851,16 +6851,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0105438356264</v>
+        <v>0.113496616</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.113496616</v>
+        <v>1.22170738428418</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0127341145866</v>
+        <v>0.137073354</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -6869,25 +6869,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5270170718</v>
+        <v>35.5855549708408</v>
       </c>
       <c r="L7" t="n">
-        <v>7.33988041306667</v>
+        <v>102.436715569812</v>
       </c>
       <c r="M7" t="n">
-        <v>2.9045630498406</v>
+        <v>2.87860385074084</v>
       </c>
       <c r="N7" t="n">
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>4.89325360871111</v>
+        <v>68.2911437132082</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9363753665604</v>
+        <v>1.91906923382723</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.110942057073188</v>
+        <v>0.106660093744653</v>
       </c>
     </row>
     <row r="8">
@@ -6904,16 +6904,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0149243935468</v>
+        <v>0.160650092</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.160650092</v>
+        <v>1.72927978471475</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01754498265935</v>
+        <v>0.1888588015</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6922,25 +6922,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5270170718</v>
+        <v>35.5855549708408</v>
       </c>
       <c r="L8" t="n">
-        <v>7.33988041306667</v>
+        <v>102.436715569812</v>
       </c>
       <c r="M8" t="n">
-        <v>2.9045630498406</v>
+        <v>2.87860385074084</v>
       </c>
       <c r="N8" t="n">
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>4.89325360871111</v>
+        <v>68.2911437132082</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9363753665604</v>
+        <v>1.91906923382723</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.110942057073188</v>
+        <v>0.106660093744653</v>
       </c>
     </row>
     <row r="9">
@@ -6957,43 +6957,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0201655717719</v>
+        <v>0.217067511</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>0.217067511</v>
+        <v>2.3365717007535</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01008278588595</v>
+        <v>0.1085337555</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1085337555</v>
+        <v>1.16828585037675</v>
       </c>
       <c r="J9" t="n">
-        <v>0.868270044</v>
+        <v>9.34628680301399</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5270170718</v>
+        <v>35.5855549708408</v>
       </c>
       <c r="L9" t="n">
-        <v>7.33988041306667</v>
+        <v>102.436715569812</v>
       </c>
       <c r="M9" t="n">
-        <v>2.9045630498406</v>
+        <v>2.87860385074084</v>
       </c>
       <c r="N9" t="n">
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>4.89325360871111</v>
+        <v>68.2911437132082</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9363753665604</v>
+        <v>1.91906923382723</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.110942057073188</v>
+        <v>0.106660093744653</v>
       </c>
     </row>
   </sheetData>
@@ -7077,43 +7077,43 @@
         <v>141.011840688913</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00256404</v>
+        <v>0.18078</v>
       </c>
       <c r="F2" t="n">
         <v>-23.6813778256189</v>
       </c>
       <c r="G2" t="n">
-        <v>0.36156</v>
+        <v>25.4921205597417</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0163479598730631</v>
+        <v>0.665431030545833</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.387142214432063</v>
+        <v>-15.7583236512468</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.54856885772825</v>
+        <v>-63.0332946049873</v>
       </c>
       <c r="K2" t="n">
-        <v>31.3153731339285</v>
+        <v>973.937295247146</v>
       </c>
       <c r="L2" t="n">
-        <v>47.9005987808972</v>
+        <v>1431.98324054232</v>
       </c>
       <c r="M2" t="n">
-        <v>1.52961928877672</v>
+        <v>1.47030332191862</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>15.9668662602991</v>
+        <v>477.327746847439</v>
       </c>
       <c r="P2" t="n">
-        <v>0.509873096258906</v>
+        <v>0.490101107306208</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.394716994224703</v>
+        <v>0.309114026172304</v>
       </c>
     </row>
     <row r="3">
@@ -7130,43 +7130,43 @@
         <v>164.693218514532</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0301318797461261</v>
+        <v>1.15008206109167</v>
       </c>
       <c r="F3" t="n">
         <v>26.9106566200215</v>
       </c>
       <c r="G3" t="n">
-        <v>4.96251625528235</v>
+        <v>189.410716197013</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0575155961535669</v>
+        <v>1.77577583555972</v>
       </c>
       <c r="I3" t="n">
-        <v>1.54778245838447</v>
+        <v>47.7872937448794</v>
       </c>
       <c r="J3" t="n">
-        <v>6.19112983353787</v>
+        <v>191.149174979518</v>
       </c>
       <c r="K3" t="n">
-        <v>31.3153731339285</v>
+        <v>973.937295247146</v>
       </c>
       <c r="L3" t="n">
-        <v>47.9005987808972</v>
+        <v>1431.98324054232</v>
       </c>
       <c r="M3" t="n">
-        <v>1.52961928877672</v>
+        <v>1.47030332191862</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>15.9668662602991</v>
+        <v>477.327746847439</v>
       </c>
       <c r="P3" t="n">
-        <v>0.509873096258906</v>
+        <v>0.490101107306208</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.394716994224703</v>
+        <v>0.309114026172304</v>
       </c>
     </row>
     <row r="4">
@@ -7183,43 +7183,43 @@
         <v>137.78256189451</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0848993125610077</v>
+        <v>2.40146961002778</v>
       </c>
       <c r="F4" t="n">
         <v>30.1399354144241</v>
       </c>
       <c r="G4" t="n">
-        <v>11.6976447877384</v>
+        <v>330.880635181438</v>
       </c>
       <c r="H4" t="n">
-        <v>0.10884367024277</v>
+        <v>3.18950931428398</v>
       </c>
       <c r="I4" t="n">
-        <v>3.28054119138597</v>
+        <v>96.1316047362233</v>
       </c>
       <c r="J4" t="n">
-        <v>13.1221647655439</v>
+        <v>384.526418944893</v>
       </c>
       <c r="K4" t="n">
-        <v>31.3153731339285</v>
+        <v>973.937295247146</v>
       </c>
       <c r="L4" t="n">
-        <v>47.9005987808972</v>
+        <v>1431.98324054232</v>
       </c>
       <c r="M4" t="n">
-        <v>1.52961928877672</v>
+        <v>1.47030332191862</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>15.9668662602991</v>
+        <v>477.327746847439</v>
       </c>
       <c r="P4" t="n">
-        <v>0.509873096258906</v>
+        <v>0.490101107306208</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.394716994224703</v>
+        <v>0.309114026172304</v>
       </c>
     </row>
     <row r="5">
@@ -7236,43 +7236,43 @@
         <v>107.642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.132788027924533</v>
+        <v>3.97754901854018</v>
       </c>
       <c r="F5" t="n">
         <v>107.642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>14.2936520909077</v>
+        <v>428.153823308954</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0663940139622664</v>
+        <v>1.98877450927009</v>
       </c>
       <c r="I5" t="n">
-        <v>7.14682604545387</v>
+        <v>214.076911654477</v>
       </c>
       <c r="J5" t="n">
-        <v>28.5873041818155</v>
+        <v>856.307646617907</v>
       </c>
       <c r="K5" t="n">
-        <v>31.3153731339285</v>
+        <v>973.937295247146</v>
       </c>
       <c r="L5" t="n">
-        <v>47.9005987808972</v>
+        <v>1431.98324054232</v>
       </c>
       <c r="M5" t="n">
-        <v>1.52961928877672</v>
+        <v>1.47030332191862</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>15.9668662602991</v>
+        <v>477.327746847439</v>
       </c>
       <c r="P5" t="n">
-        <v>0.509873096258906</v>
+        <v>0.490101107306208</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.394716994224703</v>
+        <v>0.309114026172304</v>
       </c>
     </row>
   </sheetData>
@@ -7356,43 +7356,43 @@
         <v>53.8213132400431</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003716</v>
+        <v>0.02</v>
       </c>
       <c r="F2" t="n">
         <v>-43.0570505920345</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02</v>
+        <v>1.07642626480086</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00122741519682171</v>
+        <v>0.0781631761289683</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0528488782269841</v>
+        <v>-3.36547582901909</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.264244391134921</v>
+        <v>-16.8273791450954</v>
       </c>
       <c r="K2" t="n">
-        <v>2.90084882888452</v>
+        <v>111.183596827618</v>
       </c>
       <c r="L2" t="n">
-        <v>8.29734019781374</v>
+        <v>274.602516507872</v>
       </c>
       <c r="M2" t="n">
-        <v>2.8603145793724</v>
+        <v>2.46981141412095</v>
       </c>
       <c r="N2" t="n">
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>3.45722508242239</v>
+        <v>114.417715211614</v>
       </c>
       <c r="P2" t="n">
-        <v>1.19179774140516</v>
+        <v>1.02908808921706</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.266844805901089</v>
+        <v>0.220634993847269</v>
       </c>
     </row>
     <row r="3">
@@ -7409,43 +7409,43 @@
         <v>96.8783638320775</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00208323039364341</v>
+        <v>0.136326352257936</v>
       </c>
       <c r="F3" t="n">
         <v>53.8213132400431</v>
       </c>
       <c r="G3" t="n">
-        <v>0.201819952021429</v>
+        <v>13.2070739539443</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00389687919180742</v>
+        <v>0.138414174093254</v>
       </c>
       <c r="I3" t="n">
-        <v>0.209735155640873</v>
+        <v>7.44963262073488</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04867577820437</v>
+        <v>37.2481631036744</v>
       </c>
       <c r="K3" t="n">
-        <v>2.90084882888452</v>
+        <v>111.183596827618</v>
       </c>
       <c r="L3" t="n">
-        <v>8.29734019781374</v>
+        <v>274.602516507872</v>
       </c>
       <c r="M3" t="n">
-        <v>2.8603145793724</v>
+        <v>2.46981141412095</v>
       </c>
       <c r="N3" t="n">
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>3.45722508242239</v>
+        <v>114.417715211614</v>
       </c>
       <c r="P3" t="n">
-        <v>1.19179774140516</v>
+        <v>1.02908808921706</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.266844805901089</v>
+        <v>0.220634993847269</v>
       </c>
     </row>
     <row r="4">
@@ -7462,43 +7462,43 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00571052798997143</v>
+        <v>0.140501995928571</v>
       </c>
       <c r="F4" t="n">
         <v>-37.6749192680302</v>
       </c>
       <c r="G4" t="n">
-        <v>0.245878492571429</v>
+        <v>6.04960154697832</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0145340823455401</v>
+        <v>0.541678003714286</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.547570379003125</v>
+        <v>-20.4076750592034</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.73785189501563</v>
+        <v>-102.038375296017</v>
       </c>
       <c r="K4" t="n">
-        <v>2.90084882888452</v>
+        <v>111.183596827618</v>
       </c>
       <c r="L4" t="n">
-        <v>8.29734019781374</v>
+        <v>274.602516507872</v>
       </c>
       <c r="M4" t="n">
-        <v>2.8603145793724</v>
+        <v>2.46981141412095</v>
       </c>
       <c r="N4" t="n">
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>3.45722508242239</v>
+        <v>114.417715211614</v>
       </c>
       <c r="P4" t="n">
-        <v>1.19179774140516</v>
+        <v>1.02908808921706</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.266844805901089</v>
+        <v>0.220634993847269</v>
       </c>
     </row>
     <row r="5">
@@ -7515,43 +7515,43 @@
         <v>80.7319698600646</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0233576367011087</v>
+        <v>0.9428540115</v>
       </c>
       <c r="F5" t="n">
         <v>53.8213132400431</v>
       </c>
       <c r="G5" t="n">
-        <v>1.88570802215625</v>
+        <v>76.118461638859</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0218502974390304</v>
+        <v>0.74514818675</v>
       </c>
       <c r="I5" t="n">
-        <v>1.17601170285417</v>
+        <v>40.1048539693219</v>
       </c>
       <c r="J5" t="n">
-        <v>5.88005851427083</v>
+        <v>200.524269846609</v>
       </c>
       <c r="K5" t="n">
-        <v>2.90084882888452</v>
+        <v>111.183596827618</v>
       </c>
       <c r="L5" t="n">
-        <v>8.29734019781374</v>
+        <v>274.602516507872</v>
       </c>
       <c r="M5" t="n">
-        <v>2.8603145793724</v>
+        <v>2.46981141412095</v>
       </c>
       <c r="N5" t="n">
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>3.45722508242239</v>
+        <v>114.417715211614</v>
       </c>
       <c r="P5" t="n">
-        <v>1.19179774140516</v>
+        <v>1.02908808921706</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.266844805901089</v>
+        <v>0.220634993847269</v>
       </c>
     </row>
     <row r="6">
@@ -7568,43 +7568,43 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0203429581769521</v>
+        <v>0.547442362</v>
       </c>
       <c r="F6" t="n">
         <v>26.9106566200215</v>
       </c>
       <c r="G6" t="n">
-        <v>0.547442362135417</v>
+        <v>14.7320334230355</v>
       </c>
       <c r="H6" t="n">
-        <v>0.010171479088476</v>
+        <v>0.273721181</v>
       </c>
       <c r="I6" t="n">
-        <v>0.273721181067708</v>
+        <v>7.36601671151776</v>
       </c>
       <c r="J6" t="n">
-        <v>1.36860590533854</v>
+        <v>36.8300835575888</v>
       </c>
       <c r="K6" t="n">
-        <v>2.90084882888452</v>
+        <v>111.183596827618</v>
       </c>
       <c r="L6" t="n">
-        <v>8.29734019781374</v>
+        <v>274.602516507872</v>
       </c>
       <c r="M6" t="n">
-        <v>2.8603145793724</v>
+        <v>2.46981141412095</v>
       </c>
       <c r="N6" t="n">
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>3.45722508242239</v>
+        <v>114.417715211614</v>
       </c>
       <c r="P6" t="n">
-        <v>1.19179774140516</v>
+        <v>1.02908808921706</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.266844805901089</v>
+        <v>0.220634993847269</v>
       </c>
     </row>
   </sheetData>
@@ -7688,28 +7688,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01689223633294</v>
+        <v>0.1818324686</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3636649372</v>
+        <v>3.91458489989236</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03782584413948</v>
+        <v>0.4071673212</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4071673212</v>
+        <v>4.38285598708289</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8143346424</v>
+        <v>8.76571197416577</v>
       </c>
       <c r="K2" t="n">
-        <v>0.996167111</v>
+        <v>10.7230044241119</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4468368162</v>
+        <v>15.5741314983854</v>
       </c>
       <c r="M2" t="n">
         <v>1.45240371843595</v>
@@ -7718,7 +7718,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.241139469366667</v>
+        <v>2.59568858306423</v>
       </c>
       <c r="P2" t="n">
         <v>0.242067286405992</v>
@@ -7741,28 +7741,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05875945194602</v>
+        <v>0.6325021738</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6325021738</v>
+        <v>6.80841952421959</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02937972597301</v>
+        <v>0.3162510869</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3162510869</v>
+        <v>3.4042097621098</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6325021738</v>
+        <v>6.80841952421959</v>
       </c>
       <c r="K3" t="n">
-        <v>0.996167111</v>
+        <v>10.7230044241119</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4468368162</v>
+        <v>15.5741314983854</v>
       </c>
       <c r="M3" t="n">
         <v>1.45240371843595</v>
@@ -7771,7 +7771,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.241139469366667</v>
+        <v>2.59568858306423</v>
       </c>
       <c r="P3" t="n">
         <v>0.242067286405992</v>
@@ -7861,40 +7861,40 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00022296</v>
+        <v>0.0024</v>
       </c>
       <c r="F2" t="n">
         <v>-26.9106566200215</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0048</v>
+        <v>0.0516684607104413</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00112885872925208</v>
+        <v>0.0217337470625</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0303783296354167</v>
+        <v>-0.584869404265339</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.151891648177083</v>
+        <v>-2.92434702132669</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6065637206875</v>
+        <v>12.6141415130517</v>
       </c>
       <c r="L2" t="n">
-        <v>1.907775513</v>
+        <v>30.8489999031216</v>
       </c>
       <c r="M2" t="n">
-        <v>3.14521862738125</v>
+        <v>2.44558853816589</v>
       </c>
       <c r="N2" t="n">
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.79490646375</v>
+        <v>12.853749959634</v>
       </c>
       <c r="P2" t="n">
-        <v>1.31050776140885</v>
+        <v>1.01899522423579</v>
       </c>
       <c r="Q2" t="n">
         <v>0.296063983872381</v>
@@ -7914,40 +7914,40 @@
         <v>48.4391819160387</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00203475745850417</v>
+        <v>0.041067494125</v>
       </c>
       <c r="F3" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0985619866875</v>
+        <v>1.98927581875673</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00287169481691208</v>
+        <v>0.0883989213625</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0154558386270834</v>
+        <v>-0.475774603673305</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0772791931354168</v>
+        <v>-2.37887301836653</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6065637206875</v>
+        <v>12.6141415130517</v>
       </c>
       <c r="L3" t="n">
-        <v>1.907775513</v>
+        <v>30.8489999031216</v>
       </c>
       <c r="M3" t="n">
-        <v>3.14521862738125</v>
+        <v>2.44558853816589</v>
       </c>
       <c r="N3" t="n">
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.79490646375</v>
+        <v>12.853749959634</v>
       </c>
       <c r="P3" t="n">
-        <v>1.31050776140885</v>
+        <v>1.01899522423579</v>
       </c>
       <c r="Q3" t="n">
         <v>0.296063983872381</v>
@@ -7967,40 +7967,40 @@
         <v>53.8213132400431</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00370863217532</v>
+        <v>0.1357303486</v>
       </c>
       <c r="F4" t="n">
         <v>43.0570505920345</v>
       </c>
       <c r="G4" t="n">
-        <v>0.199603454</v>
+        <v>7.30518560818084</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00649667094596</v>
+        <v>0.1178367013</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2797274896</v>
+        <v>5.07370080947255</v>
       </c>
       <c r="J4" t="n">
-        <v>1.398637448</v>
+        <v>25.3685040473628</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6065637206875</v>
+        <v>12.6141415130517</v>
       </c>
       <c r="L4" t="n">
-        <v>1.907775513</v>
+        <v>30.8489999031216</v>
       </c>
       <c r="M4" t="n">
-        <v>3.14521862738125</v>
+        <v>2.44558853816589</v>
       </c>
       <c r="N4" t="n">
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.79490646375</v>
+        <v>12.853749959634</v>
       </c>
       <c r="P4" t="n">
-        <v>1.31050776140885</v>
+        <v>1.01899522423579</v>
       </c>
       <c r="Q4" t="n">
         <v>0.296063983872381</v>
@@ -8020,16 +8020,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0092847097166</v>
+        <v>0.099943054</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.099943054</v>
+        <v>1.07581328310011</v>
       </c>
       <c r="H5" t="n">
-        <v>0.014102140106</v>
+        <v>0.15179914</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -8038,22 +8038,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6065637206875</v>
+        <v>12.6141415130517</v>
       </c>
       <c r="L5" t="n">
-        <v>1.907775513</v>
+        <v>30.8489999031216</v>
       </c>
       <c r="M5" t="n">
-        <v>3.14521862738125</v>
+        <v>2.44558853816589</v>
       </c>
       <c r="N5" t="n">
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>0.79490646375</v>
+        <v>12.853749959634</v>
       </c>
       <c r="P5" t="n">
-        <v>1.31050776140885</v>
+        <v>1.01899522423579</v>
       </c>
       <c r="Q5" t="n">
         <v>0.296063983872381</v>
@@ -8073,40 +8073,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0189195704954</v>
+        <v>0.203655226</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>0.203655226</v>
+        <v>2.19219834230355</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0094597852477</v>
+        <v>0.101827613</v>
       </c>
       <c r="I6" t="n">
-        <v>0.101827613</v>
+        <v>1.09609917115178</v>
       </c>
       <c r="J6" t="n">
-        <v>0.509138065</v>
+        <v>5.48049585575888</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6065637206875</v>
+        <v>12.6141415130517</v>
       </c>
       <c r="L6" t="n">
-        <v>1.907775513</v>
+        <v>30.8489999031216</v>
       </c>
       <c r="M6" t="n">
-        <v>3.14521862738125</v>
+        <v>2.44558853816589</v>
       </c>
       <c r="N6" t="n">
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>0.79490646375</v>
+        <v>12.853749959634</v>
       </c>
       <c r="P6" t="n">
-        <v>1.31050776140885</v>
+        <v>1.01899522423579</v>
       </c>
       <c r="Q6" t="n">
         <v>0.296063983872381</v>
@@ -8193,16 +8193,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00051095</v>
+        <v>0.0055</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0055</v>
+        <v>0.0592034445640474</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00184022363145</v>
+        <v>0.0198086505</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -8211,10 +8211,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.251251889</v>
+        <v>2.70454132400431</v>
       </c>
       <c r="L2" t="n">
-        <v>0.317451882</v>
+        <v>3.41713543595264</v>
       </c>
       <c r="M2" t="n">
         <v>1.2634805782495</v>
@@ -8223,13 +8223,13 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0793629705</v>
+        <v>0.854283858988159</v>
       </c>
       <c r="P2" t="n">
         <v>0.315870144562376</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.521444721963568</v>
+        <v>0.521444721963567</v>
       </c>
     </row>
     <row r="3">
@@ -8246,16 +8246,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0031694972629</v>
+        <v>0.034117301</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.034117301</v>
+        <v>0.367247588805167</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01141517524405</v>
+        <v>0.1228759445</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -8264,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.251251889</v>
+        <v>2.70454132400431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.317451882</v>
+        <v>3.41713543595264</v>
       </c>
       <c r="M3" t="n">
         <v>1.2634805782495</v>
@@ -8276,13 +8276,13 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0793629705</v>
+        <v>0.854283858988159</v>
       </c>
       <c r="P3" t="n">
         <v>0.315870144562376</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.521444721963568</v>
+        <v>0.521444721963567</v>
       </c>
     </row>
     <row r="4">
@@ -8299,28 +8299,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0196608532252</v>
+        <v>0.211634588</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>0.211634588</v>
+        <v>2.27809029063509</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0098304266126</v>
+        <v>0.105817294</v>
       </c>
       <c r="I4" t="n">
-        <v>0.105817294</v>
+        <v>1.13904514531755</v>
       </c>
       <c r="J4" t="n">
-        <v>0.317451882</v>
+        <v>3.41713543595264</v>
       </c>
       <c r="K4" t="n">
-        <v>0.251251889</v>
+        <v>2.70454132400431</v>
       </c>
       <c r="L4" t="n">
-        <v>0.317451882</v>
+        <v>3.41713543595264</v>
       </c>
       <c r="M4" t="n">
         <v>1.2634805782495</v>
@@ -8329,13 +8329,13 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0793629705</v>
+        <v>0.854283858988159</v>
       </c>
       <c r="P4" t="n">
         <v>0.315870144562376</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.521444721963568</v>
+        <v>0.521444721963567</v>
       </c>
     </row>
   </sheetData>
@@ -8419,43 +8419,43 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00071533</v>
+        <v>0.01155</v>
       </c>
       <c r="F2" t="n">
         <v>5.38213132400431</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01155</v>
+        <v>0.186490850376749</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0029960970904</v>
+        <v>0.034175776</v>
       </c>
       <c r="I2" t="n">
-        <v>0.016125388</v>
+        <v>0.183938514531755</v>
       </c>
       <c r="J2" t="n">
-        <v>0.032250776</v>
+        <v>0.367877029063509</v>
       </c>
       <c r="K2" t="n">
-        <v>0.068351552</v>
+        <v>0.797917674919268</v>
       </c>
       <c r="L2" t="n">
-        <v>0.089052328</v>
+        <v>0.979303853606028</v>
       </c>
       <c r="M2" t="n">
-        <v>1.30285743914052</v>
+        <v>1.22732442755465</v>
       </c>
       <c r="N2" t="n">
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0148420546666667</v>
+        <v>0.163217308934338</v>
       </c>
       <c r="P2" t="n">
-        <v>0.21714290652342</v>
+        <v>0.204554071259108</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.666114440145946</v>
+        <v>0.530959404109891</v>
       </c>
     </row>
     <row r="3">
@@ -8472,43 +8472,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0052768641808</v>
+        <v>0.056801552</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.056801552</v>
+        <v>0.611426824542519</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0026384320904</v>
+        <v>0.028400776</v>
       </c>
       <c r="I3" t="n">
-        <v>0.028400776</v>
+        <v>0.305713412271259</v>
       </c>
       <c r="J3" t="n">
-        <v>0.056801552</v>
+        <v>0.611426824542519</v>
       </c>
       <c r="K3" t="n">
-        <v>0.068351552</v>
+        <v>0.797917674919268</v>
       </c>
       <c r="L3" t="n">
-        <v>0.089052328</v>
+        <v>0.979303853606028</v>
       </c>
       <c r="M3" t="n">
-        <v>1.30285743914052</v>
+        <v>1.22732442755465</v>
       </c>
       <c r="N3" t="n">
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0148420546666667</v>
+        <v>0.163217308934338</v>
       </c>
       <c r="P3" t="n">
-        <v>0.21714290652342</v>
+        <v>0.204554071259108</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.666114440145946</v>
+        <v>0.530959404109891</v>
       </c>
     </row>
   </sheetData>
@@ -8592,28 +8592,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0095125455731</v>
+        <v>0.204791078</v>
       </c>
       <c r="F2" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.204791078</v>
+        <v>4.40884990312164</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00475627278655</v>
+        <v>0.102395539</v>
       </c>
       <c r="I2" t="n">
-        <v>0.102395539</v>
+        <v>2.20442495156082</v>
       </c>
       <c r="J2" t="n">
-        <v>0.102395539</v>
+        <v>2.20442495156082</v>
       </c>
       <c r="K2" t="n">
-        <v>0.204791078</v>
+        <v>4.40884990312164</v>
       </c>
       <c r="L2" t="n">
-        <v>0.102395539</v>
+        <v>2.20442495156082</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -8622,7 +8622,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00853296158333333</v>
+        <v>0.183702079296735</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -8712,40 +8712,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000057598</v>
+        <v>0.0062</v>
       </c>
       <c r="F2" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00062</v>
+        <v>0.0667384284176534</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000409350214138</v>
+        <v>0.0645452983</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00881270644</v>
+        <v>-1.38956508719053</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.03525082576</v>
+        <v>-5.55826034876211</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08726297221</v>
+        <v>10.716042181916</v>
       </c>
       <c r="L2" t="n">
-        <v>0.18162346404</v>
+        <v>21.3141955780409</v>
       </c>
       <c r="M2" t="n">
-        <v>2.08133483699042</v>
+        <v>1.98899885015476</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06054115468</v>
+        <v>7.10473185934697</v>
       </c>
       <c r="P2" t="n">
-        <v>0.693778278996807</v>
+        <v>0.662999616718253</v>
       </c>
       <c r="Q2" t="n">
         <v>0.398555352124904</v>
@@ -8765,40 +8765,40 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000761102428276</v>
+        <v>0.1228905966</v>
       </c>
       <c r="F3" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02457811932</v>
+        <v>3.96847997631862</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009547413214505</v>
+        <v>0.12325262955</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02055417269</v>
+        <v>2.65344735306782</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08221669076</v>
+        <v>10.6137894122713</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08726297221</v>
+        <v>10.716042181916</v>
       </c>
       <c r="L3" t="n">
-        <v>0.18162346404</v>
+        <v>21.3141955780409</v>
       </c>
       <c r="M3" t="n">
-        <v>2.08133483699042</v>
+        <v>1.98899885015476</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06054115468</v>
+        <v>7.10473185934697</v>
       </c>
       <c r="P3" t="n">
-        <v>0.693778278996807</v>
+        <v>0.662999616718253</v>
       </c>
       <c r="Q3" t="n">
         <v>0.398555352124904</v>
@@ -8818,16 +8818,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001148380214625</v>
+        <v>0.1236146625</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01236146625</v>
+        <v>1.33062069429494</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0028829124167405</v>
+        <v>0.31032426445</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -8836,22 +8836,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08726297221</v>
+        <v>10.716042181916</v>
       </c>
       <c r="L4" t="n">
-        <v>0.18162346404</v>
+        <v>21.3141955780409</v>
       </c>
       <c r="M4" t="n">
-        <v>2.08133483699042</v>
+        <v>1.98899885015476</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06054115468</v>
+        <v>7.10473185934697</v>
       </c>
       <c r="P4" t="n">
-        <v>0.693778278996807</v>
+        <v>0.662999616718253</v>
       </c>
       <c r="Q4" t="n">
         <v>0.398555352124904</v>
@@ -8871,40 +8871,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004617444618856</v>
+        <v>0.4970338664</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04970338664</v>
+        <v>5.35020308288482</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002308722309428</v>
+        <v>0.2485169332</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02485169332</v>
+        <v>2.67510154144241</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09940677328</v>
+        <v>10.7004061657696</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08726297221</v>
+        <v>10.716042181916</v>
       </c>
       <c r="L5" t="n">
-        <v>0.18162346404</v>
+        <v>21.3141955780409</v>
       </c>
       <c r="M5" t="n">
-        <v>2.08133483699042</v>
+        <v>1.98899885015476</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06054115468</v>
+        <v>7.10473185934697</v>
       </c>
       <c r="P5" t="n">
-        <v>0.693778278996807</v>
+        <v>0.662999616718253</v>
       </c>
       <c r="Q5" t="n">
         <v>0.398555352124904</v>
@@ -8991,28 +8991,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0446967871124</v>
+        <v>0.481127956</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.481127956</v>
+        <v>5.17898768568353</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0223483935562</v>
+        <v>0.240563978</v>
       </c>
       <c r="I2" t="n">
-        <v>0.240563978</v>
+        <v>2.58949384284177</v>
       </c>
       <c r="J2" t="n">
-        <v>0.240563978</v>
+        <v>2.58949384284177</v>
       </c>
       <c r="K2" t="n">
-        <v>0.481127956</v>
+        <v>5.17898768568353</v>
       </c>
       <c r="L2" t="n">
-        <v>0.240563978</v>
+        <v>2.58949384284177</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -9021,7 +9021,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0200469981666667</v>
+        <v>0.215791153570147</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -9111,28 +9111,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0362255011561</v>
+        <v>0.779881618</v>
       </c>
       <c r="F2" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.779881618</v>
+        <v>16.7897011410118</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01811275057805</v>
+        <v>0.389940809</v>
       </c>
       <c r="I2" t="n">
-        <v>0.389940809</v>
+        <v>8.39485057050592</v>
       </c>
       <c r="J2" t="n">
-        <v>0.389940809</v>
+        <v>8.39485057050592</v>
       </c>
       <c r="K2" t="n">
-        <v>0.779881618</v>
+        <v>16.7897011410118</v>
       </c>
       <c r="L2" t="n">
-        <v>0.389940809</v>
+        <v>8.39485057050592</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -9141,7 +9141,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0324950674166667</v>
+        <v>0.699570880875493</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -9231,43 +9231,43 @@
         <v>57.4094007893793</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0102620775612317</v>
+        <v>0.294569862166667</v>
       </c>
       <c r="F2" t="n">
         <v>7.1761750986724</v>
       </c>
       <c r="G2" t="n">
-        <v>0.589139723644444</v>
+        <v>16.9110792775984</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0261689626253325</v>
+        <v>0.474390552583333</v>
       </c>
       <c r="I2" t="n">
-        <v>0.18779305795</v>
+        <v>3.40430967049396</v>
       </c>
       <c r="J2" t="n">
-        <v>1.69013752155</v>
+        <v>30.6387870344456</v>
       </c>
       <c r="K2" t="n">
-        <v>22.4309756367556</v>
+        <v>262.134073472073</v>
       </c>
       <c r="L2" t="n">
-        <v>67.56171528155</v>
+        <v>765.69935719591</v>
       </c>
       <c r="M2" t="n">
-        <v>3.01198291040194</v>
+        <v>2.92102185364119</v>
       </c>
       <c r="N2" t="n">
         <v>1.33333333333333</v>
       </c>
       <c r="O2" t="n">
-        <v>50.6712864611625</v>
+        <v>574.274517896932</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25898718280145</v>
+        <v>2.19076639023089</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.070045932046799</v>
+        <v>0.0534217073996628</v>
       </c>
     </row>
     <row r="3">
@@ -9284,43 +9284,43 @@
         <v>50.2332256907069</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0420758476894333</v>
+        <v>0.654211243</v>
       </c>
       <c r="F3" t="n">
         <v>28.7047003946896</v>
       </c>
       <c r="G3" t="n">
-        <v>2.11360555311111</v>
+        <v>32.8631410190169</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0496638592270167</v>
+        <v>0.6352427085</v>
       </c>
       <c r="I3" t="n">
-        <v>1.42558619955556</v>
+        <v>18.2344516254037</v>
       </c>
       <c r="J3" t="n">
-        <v>12.830275796</v>
+        <v>164.110064628633</v>
       </c>
       <c r="K3" t="n">
-        <v>22.4309756367556</v>
+        <v>262.134073472073</v>
       </c>
       <c r="L3" t="n">
-        <v>67.56171528155</v>
+        <v>765.69935719591</v>
       </c>
       <c r="M3" t="n">
-        <v>3.01198291040194</v>
+        <v>2.92102185364119</v>
       </c>
       <c r="N3" t="n">
         <v>1.33333333333333</v>
       </c>
       <c r="O3" t="n">
-        <v>50.6712864611625</v>
+        <v>574.274517896932</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25898718280145</v>
+        <v>2.19076639023089</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.070045932046799</v>
+        <v>0.0534217073996628</v>
       </c>
     </row>
     <row r="4">
@@ -9337,43 +9337,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0572518707646</v>
+        <v>0.616274174</v>
       </c>
       <c r="F4" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>1.232548348</v>
+        <v>13.2674741442411</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1033030928696</v>
+        <v>1.111981624</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.111981624</v>
+        <v>-11.9696622604952</v>
       </c>
       <c r="J4" t="n">
-        <v>-10.007834616</v>
+        <v>-107.726960344456</v>
       </c>
       <c r="K4" t="n">
-        <v>22.4309756367556</v>
+        <v>262.134073472073</v>
       </c>
       <c r="L4" t="n">
-        <v>67.56171528155</v>
+        <v>765.69935719591</v>
       </c>
       <c r="M4" t="n">
-        <v>3.01198291040194</v>
+        <v>2.92102185364119</v>
       </c>
       <c r="N4" t="n">
         <v>1.33333333333333</v>
       </c>
       <c r="O4" t="n">
-        <v>50.6712864611625</v>
+        <v>574.274517896932</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25898718280145</v>
+        <v>2.19076639023089</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.070045932046799</v>
+        <v>0.0534217073996628</v>
       </c>
     </row>
     <row r="5">
@@ -9390,43 +9390,43 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1493543149746</v>
+        <v>1.607689074</v>
       </c>
       <c r="F5" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G5" t="n">
-        <v>4.823067222</v>
+        <v>51.9167623466093</v>
       </c>
       <c r="H5" t="n">
-        <v>0.11380050557635</v>
+        <v>1.2249785315</v>
       </c>
       <c r="I5" t="n">
-        <v>2.449957063</v>
+        <v>26.3719813024758</v>
       </c>
       <c r="J5" t="n">
-        <v>22.049613567</v>
+        <v>237.347831722282</v>
       </c>
       <c r="K5" t="n">
-        <v>22.4309756367556</v>
+        <v>262.134073472073</v>
       </c>
       <c r="L5" t="n">
-        <v>67.56171528155</v>
+        <v>765.69935719591</v>
       </c>
       <c r="M5" t="n">
-        <v>3.01198291040194</v>
+        <v>2.92102185364119</v>
       </c>
       <c r="N5" t="n">
         <v>1.33333333333333</v>
       </c>
       <c r="O5" t="n">
-        <v>50.6712864611625</v>
+        <v>574.274517896932</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25898718280145</v>
+        <v>2.19076639023089</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.070045932046799</v>
+        <v>0.0534217073996628</v>
       </c>
     </row>
     <row r="6">
@@ -9443,16 +9443,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0782466961781</v>
+        <v>0.842267989</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.842267989</v>
+        <v>9.06639385360603</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09646418825465</v>
+        <v>1.0383658585</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -9461,25 +9461,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>22.4309756367556</v>
+        <v>262.134073472073</v>
       </c>
       <c r="L6" t="n">
-        <v>67.56171528155</v>
+        <v>765.69935719591</v>
       </c>
       <c r="M6" t="n">
-        <v>3.01198291040194</v>
+        <v>2.92102185364119</v>
       </c>
       <c r="N6" t="n">
         <v>1.33333333333333</v>
       </c>
       <c r="O6" t="n">
-        <v>50.6712864611625</v>
+        <v>574.274517896932</v>
       </c>
       <c r="P6" t="n">
-        <v>2.25898718280145</v>
+        <v>2.19076639023089</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.070045932046799</v>
+        <v>0.0534217073996628</v>
       </c>
     </row>
     <row r="7">
@@ -9496,16 +9496,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1146816803312</v>
+        <v>1.234463728</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.234463728</v>
+        <v>13.2880917976319</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1371925244014</v>
+        <v>1.476776366</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -9514,25 +9514,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.4309756367556</v>
+        <v>262.134073472073</v>
       </c>
       <c r="L7" t="n">
-        <v>67.56171528155</v>
+        <v>765.69935719591</v>
       </c>
       <c r="M7" t="n">
-        <v>3.01198291040194</v>
+        <v>2.92102185364119</v>
       </c>
       <c r="N7" t="n">
         <v>1.33333333333333</v>
       </c>
       <c r="O7" t="n">
-        <v>50.6712864611625</v>
+        <v>574.274517896932</v>
       </c>
       <c r="P7" t="n">
-        <v>2.25898718280145</v>
+        <v>2.19076639023089</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.070045932046799</v>
+        <v>0.0534217073996628</v>
       </c>
     </row>
     <row r="8">
@@ -9549,16 +9549,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1597033684716</v>
+        <v>1.719089004</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.719089004</v>
+        <v>18.5047255543595</v>
       </c>
       <c r="H8" t="n">
-        <v>0.21872567406515</v>
+        <v>2.3544206035</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -9567,25 +9567,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>22.4309756367556</v>
+        <v>262.134073472073</v>
       </c>
       <c r="L8" t="n">
-        <v>67.56171528155</v>
+        <v>765.69935719591</v>
       </c>
       <c r="M8" t="n">
-        <v>3.01198291040194</v>
+        <v>2.92102185364119</v>
       </c>
       <c r="N8" t="n">
         <v>1.33333333333333</v>
       </c>
       <c r="O8" t="n">
-        <v>50.6712864611625</v>
+        <v>574.274517896932</v>
       </c>
       <c r="P8" t="n">
-        <v>2.25898718280145</v>
+        <v>2.19076639023089</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.070045932046799</v>
+        <v>0.0534217073996628</v>
       </c>
     </row>
     <row r="9">
@@ -9602,16 +9602,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2777479796587</v>
+        <v>2.989752203</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.989752203</v>
+        <v>32.1824779655544</v>
       </c>
       <c r="H9" t="n">
-        <v>0.45877708450505</v>
+        <v>4.9383970345</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -9620,25 +9620,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>22.4309756367556</v>
+        <v>262.134073472073</v>
       </c>
       <c r="L9" t="n">
-        <v>67.56171528155</v>
+        <v>765.69935719591</v>
       </c>
       <c r="M9" t="n">
-        <v>3.01198291040194</v>
+        <v>2.92102185364119</v>
       </c>
       <c r="N9" t="n">
         <v>1.33333333333333</v>
       </c>
       <c r="O9" t="n">
-        <v>50.6712864611625</v>
+        <v>574.274517896932</v>
       </c>
       <c r="P9" t="n">
-        <v>2.25898718280145</v>
+        <v>2.19076639023089</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.070045932046799</v>
+        <v>0.0534217073996628</v>
       </c>
     </row>
     <row r="10">
@@ -9655,43 +9655,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6398061893514</v>
+        <v>6.887041866</v>
       </c>
       <c r="F10" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G10" t="n">
-        <v>6.887041866</v>
+        <v>74.1339275134553</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3199030946757</v>
+        <v>3.443520933</v>
       </c>
       <c r="I10" t="n">
-        <v>3.443520933</v>
+        <v>37.0669637567277</v>
       </c>
       <c r="J10" t="n">
-        <v>30.991688397</v>
+        <v>333.602673810549</v>
       </c>
       <c r="K10" t="n">
-        <v>22.4309756367556</v>
+        <v>262.134073472073</v>
       </c>
       <c r="L10" t="n">
-        <v>67.56171528155</v>
+        <v>765.69935719591</v>
       </c>
       <c r="M10" t="n">
-        <v>3.01198291040194</v>
+        <v>2.92102185364119</v>
       </c>
       <c r="N10" t="n">
         <v>1.33333333333333</v>
       </c>
       <c r="O10" t="n">
-        <v>50.6712864611625</v>
+        <v>574.274517896932</v>
       </c>
       <c r="P10" t="n">
-        <v>2.25898718280145</v>
+        <v>2.19076639023089</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.070045932046799</v>
+        <v>0.0534217073996628</v>
       </c>
     </row>
   </sheetData>
@@ -9775,28 +9775,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0261331878642</v>
+        <v>0.281304498</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.281304498</v>
+        <v>3.02803550053821</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0130665939321</v>
+        <v>0.140652249</v>
       </c>
       <c r="I2" t="n">
-        <v>0.140652249</v>
+        <v>1.51401775026911</v>
       </c>
       <c r="J2" t="n">
-        <v>0.140652249</v>
+        <v>1.51401775026911</v>
       </c>
       <c r="K2" t="n">
-        <v>0.281304498</v>
+        <v>3.02803550053821</v>
       </c>
       <c r="L2" t="n">
-        <v>0.140652249</v>
+        <v>1.51401775026911</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -9805,7 +9805,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01172102075</v>
+        <v>0.126168145855759</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -9895,43 +9895,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00811624347685</v>
+        <v>0.174730753</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.174730753</v>
+        <v>3.76169543595264</v>
       </c>
       <c r="H2" t="n">
-        <v>0.013157843354575</v>
+        <v>0.18531717</v>
       </c>
       <c r="I2" t="n">
-        <v>0.14163448175</v>
+        <v>1.99480269106566</v>
       </c>
       <c r="J2" t="n">
-        <v>0.42490344525</v>
+        <v>5.98440807319699</v>
       </c>
       <c r="K2" t="n">
-        <v>0.737129964</v>
+        <v>9.81550825618945</v>
       </c>
       <c r="L2" t="n">
-        <v>0.97464688125</v>
+        <v>11.9019908073197</v>
       </c>
       <c r="M2" t="n">
-        <v>1.32221850806488</v>
+        <v>1.21256999603811</v>
       </c>
       <c r="N2" t="n">
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2436617203125</v>
+        <v>2.97549770182993</v>
       </c>
       <c r="P2" t="n">
-        <v>0.33055462701622</v>
+        <v>0.303142499009528</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.119490627249575</v>
+        <v>0.0617283622029128</v>
       </c>
     </row>
     <row r="3">
@@ -9948,16 +9948,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0181994432323</v>
+        <v>0.195903587</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.195903587</v>
+        <v>2.10875766415501</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02612344335095</v>
+        <v>0.2811996055</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -9966,25 +9966,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.737129964</v>
+        <v>9.81550825618945</v>
       </c>
       <c r="L3" t="n">
-        <v>0.97464688125</v>
+        <v>11.9019908073197</v>
       </c>
       <c r="M3" t="n">
-        <v>1.32221850806488</v>
+        <v>1.21256999603811</v>
       </c>
       <c r="N3" t="n">
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2436617203125</v>
+        <v>2.97549770182993</v>
       </c>
       <c r="P3" t="n">
-        <v>0.33055462701622</v>
+        <v>0.303142499009528</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.119490627249575</v>
+        <v>0.0617283622029128</v>
       </c>
     </row>
     <row r="4">
@@ -10001,43 +10001,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0340474434696</v>
+        <v>0.366495624</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>0.366495624</v>
+        <v>3.94505515608181</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0170237217348</v>
+        <v>0.183247812</v>
       </c>
       <c r="I4" t="n">
-        <v>0.183247812</v>
+        <v>1.9725275780409</v>
       </c>
       <c r="J4" t="n">
-        <v>0.549743436</v>
+        <v>5.91758273412271</v>
       </c>
       <c r="K4" t="n">
-        <v>0.737129964</v>
+        <v>9.81550825618945</v>
       </c>
       <c r="L4" t="n">
-        <v>0.97464688125</v>
+        <v>11.9019908073197</v>
       </c>
       <c r="M4" t="n">
-        <v>1.32221850806488</v>
+        <v>1.21256999603811</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2436617203125</v>
+        <v>2.97549770182993</v>
       </c>
       <c r="P4" t="n">
-        <v>0.33055462701622</v>
+        <v>0.303142499009528</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.119490627249575</v>
+        <v>0.0617283622029128</v>
       </c>
     </row>
   </sheetData>
@@ -10121,16 +10121,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0072898761918</v>
+        <v>0.078470142</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.078470142</v>
+        <v>0.844673218514532</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0141729142059</v>
+        <v>0.152560971</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10139,19 +10139,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.305121942</v>
+        <v>3.28441272335845</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2266518</v>
+        <v>2.43973950484392</v>
       </c>
       <c r="M2" t="n">
-        <v>0.742823667528965</v>
+        <v>0.742823667528964</v>
       </c>
       <c r="N2" t="n">
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0377753</v>
+        <v>0.40662325080732</v>
       </c>
       <c r="P2" t="n">
         <v>0.123803944588161</v>
@@ -10174,37 +10174,37 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02105595222</v>
+        <v>0.2266518</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2266518</v>
+        <v>2.43973950484392</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01052797611</v>
+        <v>0.1133259</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1133259</v>
+        <v>1.21986975242196</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2266518</v>
+        <v>2.43973950484392</v>
       </c>
       <c r="K3" t="n">
-        <v>0.305121942</v>
+        <v>3.28441272335845</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2266518</v>
+        <v>2.43973950484392</v>
       </c>
       <c r="M3" t="n">
-        <v>0.742823667528965</v>
+        <v>0.742823667528964</v>
       </c>
       <c r="N3" t="n">
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0377753</v>
+        <v>0.40662325080732</v>
       </c>
       <c r="P3" t="n">
         <v>0.123803944588161</v>
@@ -10294,43 +10294,43 @@
         <v>18.8374596340151</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00090113</v>
+        <v>0.016975</v>
       </c>
       <c r="F2" t="n">
         <v>8.07319698600646</v>
       </c>
       <c r="G2" t="n">
-        <v>0.016975</v>
+        <v>0.319765877287406</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02538049891885</v>
+        <v>0.2768398565</v>
       </c>
       <c r="I2" t="n">
-        <v>0.204901767375</v>
+        <v>2.23498269510226</v>
       </c>
       <c r="J2" t="n">
-        <v>1.22941060425</v>
+        <v>13.4098961706136</v>
       </c>
       <c r="K2" t="n">
-        <v>16.544727063</v>
+        <v>178.228830064586</v>
       </c>
       <c r="L2" t="n">
-        <v>24.07976757225</v>
+        <v>259.377140174919</v>
       </c>
       <c r="M2" t="n">
-        <v>1.45543456114795</v>
+        <v>1.45530406096998</v>
       </c>
       <c r="N2" t="n">
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>12.039883786125</v>
+        <v>129.68857008746</v>
       </c>
       <c r="P2" t="n">
-        <v>0.727717280573974</v>
+        <v>0.727652030484988</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.190456681264424</v>
+        <v>0.174467658751983</v>
       </c>
     </row>
     <row r="3">
@@ -10347,16 +10347,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0498598678377</v>
+        <v>0.536704713</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.536704713</v>
+        <v>5.77723049515608</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0724936321713</v>
+        <v>0.780340497</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -10365,25 +10365,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>16.544727063</v>
+        <v>178.228830064586</v>
       </c>
       <c r="L3" t="n">
-        <v>24.07976757225</v>
+        <v>259.377140174919</v>
       </c>
       <c r="M3" t="n">
-        <v>1.45543456114795</v>
+        <v>1.45530406096998</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>12.039883786125</v>
+        <v>129.68857008746</v>
       </c>
       <c r="P3" t="n">
-        <v>0.727717280573974</v>
+        <v>0.727652030484988</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.190456681264424</v>
+        <v>0.174467658751983</v>
       </c>
     </row>
     <row r="4">
@@ -10400,16 +10400,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0951273965049</v>
+        <v>1.023976281</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.023976281</v>
+        <v>11.0223496340151</v>
       </c>
       <c r="H4" t="n">
-        <v>0.128195306555</v>
+        <v>1.37992795</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -10418,25 +10418,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>16.544727063</v>
+        <v>178.228830064586</v>
       </c>
       <c r="L4" t="n">
-        <v>24.07976757225</v>
+        <v>259.377140174919</v>
       </c>
       <c r="M4" t="n">
-        <v>1.45543456114795</v>
+        <v>1.45530406096998</v>
       </c>
       <c r="N4" t="n">
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>12.039883786125</v>
+        <v>129.68857008746</v>
       </c>
       <c r="P4" t="n">
-        <v>0.727717280573974</v>
+        <v>0.727652030484988</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.190456681264424</v>
+        <v>0.174467658751983</v>
       </c>
     </row>
     <row r="5">
@@ -10453,16 +10453,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1612632166051</v>
+        <v>1.735879619</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.735879619</v>
+        <v>18.6854641442411</v>
       </c>
       <c r="H5" t="n">
-        <v>0.34142075743385</v>
+        <v>3.6751427065</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -10471,25 +10471,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>16.544727063</v>
+        <v>178.228830064586</v>
       </c>
       <c r="L5" t="n">
-        <v>24.07976757225</v>
+        <v>259.377140174919</v>
       </c>
       <c r="M5" t="n">
-        <v>1.45543456114795</v>
+        <v>1.45530406096998</v>
       </c>
       <c r="N5" t="n">
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>12.039883786125</v>
+        <v>129.68857008746</v>
       </c>
       <c r="P5" t="n">
-        <v>0.727717280573974</v>
+        <v>0.727652030484988</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.190456681264424</v>
+        <v>0.174467658751983</v>
       </c>
     </row>
     <row r="6">
@@ -10506,16 +10506,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5215782982626</v>
+        <v>5.614405794</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.614405794</v>
+        <v>60.4349385791173</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6145888428525</v>
+        <v>6.615595725</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -10524,25 +10524,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>16.544727063</v>
+        <v>178.228830064586</v>
       </c>
       <c r="L6" t="n">
-        <v>24.07976757225</v>
+        <v>259.377140174919</v>
       </c>
       <c r="M6" t="n">
-        <v>1.45543456114795</v>
+        <v>1.45530406096998</v>
       </c>
       <c r="N6" t="n">
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>12.039883786125</v>
+        <v>129.68857008746</v>
       </c>
       <c r="P6" t="n">
-        <v>0.727717280573974</v>
+        <v>0.727652030484988</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.190456681264424</v>
+        <v>0.174467658751983</v>
       </c>
     </row>
     <row r="7">
@@ -10559,43 +10559,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7075993874424</v>
+        <v>7.616785656</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>7.616785656</v>
+        <v>81.9890813347686</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3537996937212</v>
+        <v>3.808392828</v>
       </c>
       <c r="I7" t="n">
-        <v>3.808392828</v>
+        <v>40.9945406673843</v>
       </c>
       <c r="J7" t="n">
-        <v>22.850356968</v>
+        <v>245.967244004306</v>
       </c>
       <c r="K7" t="n">
-        <v>16.544727063</v>
+        <v>178.228830064586</v>
       </c>
       <c r="L7" t="n">
-        <v>24.07976757225</v>
+        <v>259.377140174919</v>
       </c>
       <c r="M7" t="n">
-        <v>1.45543456114795</v>
+        <v>1.45530406096998</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>12.039883786125</v>
+        <v>129.68857008746</v>
       </c>
       <c r="P7" t="n">
-        <v>0.727717280573974</v>
+        <v>0.727652030484988</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.190456681264424</v>
+        <v>0.174467658751983</v>
       </c>
     </row>
   </sheetData>
@@ -10679,28 +10679,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0040755181692</v>
+        <v>0.087739896</v>
       </c>
       <c r="F2" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.087739896</v>
+        <v>1.88891057050592</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0020377590846</v>
+        <v>0.043869948</v>
       </c>
       <c r="I2" t="n">
-        <v>0.043869948</v>
+        <v>0.94445528525296</v>
       </c>
       <c r="J2" t="n">
-        <v>0.043869948</v>
+        <v>0.94445528525296</v>
       </c>
       <c r="K2" t="n">
-        <v>0.087739896</v>
+        <v>1.88891057050592</v>
       </c>
       <c r="L2" t="n">
-        <v>0.043869948</v>
+        <v>0.94445528525296</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -10709,7 +10709,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003655829</v>
+        <v>0.0787046071044133</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -10799,16 +10799,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00180226</v>
+        <v>0.0194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0194</v>
+        <v>0.208826695371367</v>
       </c>
       <c r="H2" t="n">
-        <v>0.34076357791015</v>
+        <v>3.6680686535</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10817,10 +10817,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.336137307</v>
+        <v>78.9681087944026</v>
       </c>
       <c r="L2" t="n">
-        <v>7.316737307</v>
+        <v>78.7592820990312</v>
       </c>
       <c r="M2" t="n">
         <v>0.99735555658405</v>
@@ -10829,7 +10829,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21945621783333</v>
+        <v>13.1265470165052</v>
       </c>
       <c r="P2" t="n">
         <v>0.166225926097342</v>
@@ -10852,28 +10852,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6797248958203</v>
+        <v>7.316737307</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>7.316737307</v>
+        <v>78.7592820990312</v>
       </c>
       <c r="H3" t="n">
-        <v>0.33986244791015</v>
+        <v>3.6583686535</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6583686535</v>
+        <v>39.3796410495156</v>
       </c>
       <c r="J3" t="n">
-        <v>7.316737307</v>
+        <v>78.7592820990312</v>
       </c>
       <c r="K3" t="n">
-        <v>7.336137307</v>
+        <v>78.9681087944026</v>
       </c>
       <c r="L3" t="n">
-        <v>7.316737307</v>
+        <v>78.7592820990312</v>
       </c>
       <c r="M3" t="n">
         <v>0.99735555658405</v>
@@ -10882,7 +10882,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21945621783333</v>
+        <v>13.1265470165052</v>
       </c>
       <c r="P3" t="n">
         <v>0.166225926097342</v>
@@ -10972,28 +10972,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0007063337498</v>
+        <v>0.007603162</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.015206324</v>
+        <v>0.163684865446717</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0005298237498</v>
+        <v>0.005703162</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005703162</v>
+        <v>0.0613903336921421</v>
       </c>
       <c r="J2" t="n">
-        <v>0.022812648</v>
+        <v>0.245561334768568</v>
       </c>
       <c r="K2" t="n">
-        <v>0.026617596</v>
+        <v>0.286518794402583</v>
       </c>
       <c r="L2" t="n">
-        <v>0.030421526</v>
+        <v>0.327465296017223</v>
       </c>
       <c r="M2" t="n">
         <v>1.14291035148328</v>
@@ -11002,7 +11002,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0101405086666667</v>
+        <v>0.109155098672408</v>
       </c>
       <c r="P2" t="n">
         <v>0.380970117161094</v>
@@ -11025,16 +11025,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003533137498</v>
+        <v>0.003803162</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003803162</v>
+        <v>0.0409382346609257</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00035333739285</v>
+        <v>0.0038034165</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -11043,10 +11043,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.026617596</v>
+        <v>0.286518794402583</v>
       </c>
       <c r="L3" t="n">
-        <v>0.030421526</v>
+        <v>0.327465296017223</v>
       </c>
       <c r="M3" t="n">
         <v>1.14291035148328</v>
@@ -11055,7 +11055,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0101405086666667</v>
+        <v>0.109155098672408</v>
       </c>
       <c r="P3" t="n">
         <v>0.380970117161094</v>
@@ -11078,16 +11078,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003533610359</v>
+        <v>0.003803671</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003803671</v>
+        <v>0.0409437136706136</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0003533967095</v>
+        <v>0.003804055</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -11096,10 +11096,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.026617596</v>
+        <v>0.286518794402583</v>
       </c>
       <c r="L4" t="n">
-        <v>0.030421526</v>
+        <v>0.327465296017223</v>
       </c>
       <c r="M4" t="n">
         <v>1.14291035148328</v>
@@ -11108,7 +11108,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0101405086666667</v>
+        <v>0.109155098672408</v>
       </c>
       <c r="P4" t="n">
         <v>0.380970117161094</v>
@@ -11131,28 +11131,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003534323831</v>
+        <v>0.003804439</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003804439</v>
+        <v>0.0409519806243272</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00017671619155</v>
+        <v>0.0019022195</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0019022195</v>
+        <v>0.0204759903121636</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007608878</v>
+        <v>0.0819039612486545</v>
       </c>
       <c r="K5" t="n">
-        <v>0.026617596</v>
+        <v>0.286518794402583</v>
       </c>
       <c r="L5" t="n">
-        <v>0.030421526</v>
+        <v>0.327465296017223</v>
       </c>
       <c r="M5" t="n">
         <v>1.14291035148328</v>
@@ -11161,7 +11161,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0101405086666667</v>
+        <v>0.109155098672408</v>
       </c>
       <c r="P5" t="n">
         <v>0.380970117161094</v>
@@ -11251,40 +11251,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.12282767926</v>
+        <v>1.3221494</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>1.3221494</v>
+        <v>14.231963401507</v>
       </c>
       <c r="H2" t="n">
-        <v>0.190716571620425</v>
+        <v>3.4447718365</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.05292326825</v>
+        <v>-37.080428810549</v>
       </c>
       <c r="J2" t="n">
-        <v>-16.423386146</v>
+        <v>-296.643430484392</v>
       </c>
       <c r="K2" t="n">
-        <v>190.860977195</v>
+        <v>4965.98582421959</v>
       </c>
       <c r="L2" t="n">
-        <v>768.118887973333</v>
+        <v>14218.5831293864</v>
       </c>
       <c r="M2" t="n">
-        <v>4.02449415937212</v>
+        <v>2.86319446584826</v>
       </c>
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>512.079258648889</v>
+        <v>9479.05541959096</v>
       </c>
       <c r="P2" t="n">
-        <v>2.68299610624808</v>
+        <v>1.90879631056551</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0599208003450109</v>
@@ -11304,16 +11304,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25860546398085</v>
+        <v>5.567394273</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.567394273</v>
+        <v>119.857788439182</v>
       </c>
       <c r="H3" t="n">
-        <v>0.359664718369375</v>
+        <v>7.7430509875</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -11322,22 +11322,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>190.860977195</v>
+        <v>4965.98582421959</v>
       </c>
       <c r="L3" t="n">
-        <v>768.118887973333</v>
+        <v>14218.5831293864</v>
       </c>
       <c r="M3" t="n">
-        <v>4.02449415937212</v>
+        <v>2.86319446584826</v>
       </c>
       <c r="N3" t="n">
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>512.079258648889</v>
+        <v>9479.05541959096</v>
       </c>
       <c r="P3" t="n">
-        <v>2.68299610624808</v>
+        <v>1.90879631056551</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0599208003450109</v>
@@ -11357,40 +11357,40 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4607239727579</v>
+        <v>9.918707702</v>
       </c>
       <c r="F4" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>9.918707702</v>
+        <v>213.535149666308</v>
       </c>
       <c r="H4" t="n">
-        <v>0.599621658249617</v>
+        <v>16.883778131</v>
       </c>
       <c r="I4" t="n">
-        <v>-6.45448501883333</v>
+        <v>-181.741422292788</v>
       </c>
       <c r="J4" t="n">
-        <v>-51.6358801506667</v>
+        <v>-1453.9313783423</v>
       </c>
       <c r="K4" t="n">
-        <v>190.860977195</v>
+        <v>4965.98582421959</v>
       </c>
       <c r="L4" t="n">
-        <v>768.118887973333</v>
+        <v>14218.5831293864</v>
       </c>
       <c r="M4" t="n">
-        <v>4.02449415937212</v>
+        <v>2.86319446584826</v>
       </c>
       <c r="N4" t="n">
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>512.079258648889</v>
+        <v>9479.05541959096</v>
       </c>
       <c r="P4" t="n">
-        <v>2.68299610624808</v>
+        <v>1.90879631056551</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0599208003450109</v>
@@ -11410,16 +11410,16 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E5" t="n">
-        <v>0.738519343741333</v>
+        <v>23.84884856</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>23.84884856</v>
+        <v>770.145809257266</v>
       </c>
       <c r="H5" t="n">
-        <v>0.919547834998667</v>
+        <v>29.69476324</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -11428,22 +11428,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>190.860977195</v>
+        <v>4965.98582421959</v>
       </c>
       <c r="L5" t="n">
-        <v>768.118887973333</v>
+        <v>14218.5831293864</v>
       </c>
       <c r="M5" t="n">
-        <v>4.02449415937212</v>
+        <v>2.86319446584826</v>
       </c>
       <c r="N5" t="n">
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>512.079258648889</v>
+        <v>9479.05541959096</v>
       </c>
       <c r="P5" t="n">
-        <v>2.68299610624808</v>
+        <v>1.90879631056551</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0599208003450109</v>
@@ -11463,40 +11463,40 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E6" t="n">
-        <v>1.100576326256</v>
+        <v>35.54067792</v>
       </c>
       <c r="F6" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G6" t="n">
-        <v>35.54067792</v>
+        <v>1147.70757545748</v>
       </c>
       <c r="H6" t="n">
-        <v>1.3277397061325</v>
+        <v>26.139031565</v>
       </c>
       <c r="I6" t="n">
-        <v>28.58427785</v>
+        <v>562.734802260495</v>
       </c>
       <c r="J6" t="n">
-        <v>228.6742228</v>
+        <v>4501.87841808396</v>
       </c>
       <c r="K6" t="n">
-        <v>190.860977195</v>
+        <v>4965.98582421959</v>
       </c>
       <c r="L6" t="n">
-        <v>768.118887973333</v>
+        <v>14218.5831293864</v>
       </c>
       <c r="M6" t="n">
-        <v>4.02449415937212</v>
+        <v>2.86319446584826</v>
       </c>
       <c r="N6" t="n">
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>512.079258648889</v>
+        <v>9479.05541959096</v>
       </c>
       <c r="P6" t="n">
-        <v>2.68299610624808</v>
+        <v>1.90879631056551</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0599208003450109</v>
@@ -11516,40 +11516,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>1.554903086009</v>
+        <v>16.73738521</v>
       </c>
       <c r="F7" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G7" t="n">
-        <v>16.73738521</v>
+        <v>180.165610441335</v>
       </c>
       <c r="H7" t="n">
-        <v>1.83197454653167</v>
+        <v>42.42218034</v>
       </c>
       <c r="I7" t="n">
-        <v>-39.4397103666667</v>
+        <v>-913.286982561894</v>
       </c>
       <c r="J7" t="n">
-        <v>-315.517682933333</v>
+        <v>-7306.29586049516</v>
       </c>
       <c r="K7" t="n">
-        <v>190.860977195</v>
+        <v>4965.98582421959</v>
       </c>
       <c r="L7" t="n">
-        <v>768.118887973333</v>
+        <v>14218.5831293864</v>
       </c>
       <c r="M7" t="n">
-        <v>4.02449415937212</v>
+        <v>2.86319446584826</v>
       </c>
       <c r="N7" t="n">
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>512.079258648889</v>
+        <v>9479.05541959096</v>
       </c>
       <c r="P7" t="n">
-        <v>2.68299610624808</v>
+        <v>1.90879631056551</v>
       </c>
       <c r="Q7" t="n">
         <v>0.0599208003450109</v>
@@ -11569,40 +11569,40 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E8" t="n">
-        <v>2.10904600705433</v>
+        <v>68.10697547</v>
       </c>
       <c r="F8" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G8" t="n">
-        <v>68.10697547</v>
+        <v>2199.36411636168</v>
       </c>
       <c r="H8" t="n">
-        <v>2.43960805928417</v>
+        <v>48.962907065</v>
       </c>
       <c r="I8" t="n">
-        <v>52.5211638166667</v>
+        <v>1054.09918331539</v>
       </c>
       <c r="J8" t="n">
-        <v>420.169310533333</v>
+        <v>8432.79346652314</v>
       </c>
       <c r="K8" t="n">
-        <v>190.860977195</v>
+        <v>4965.98582421959</v>
       </c>
       <c r="L8" t="n">
-        <v>768.118887973333</v>
+        <v>14218.5831293864</v>
       </c>
       <c r="M8" t="n">
-        <v>4.02449415937212</v>
+        <v>2.86319446584826</v>
       </c>
       <c r="N8" t="n">
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>512.079258648889</v>
+        <v>9479.05541959096</v>
       </c>
       <c r="P8" t="n">
-        <v>2.68299610624808</v>
+        <v>1.90879631056551</v>
       </c>
       <c r="Q8" t="n">
         <v>0.0599208003450109</v>
@@ -11622,40 +11622,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>2.770170111514</v>
+        <v>29.81883866</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>29.81883866</v>
+        <v>320.977811194833</v>
       </c>
       <c r="H9" t="n">
-        <v>1.385085055757</v>
+        <v>14.90941933</v>
       </c>
       <c r="I9" t="n">
-        <v>14.90941933</v>
+        <v>160.488905597417</v>
       </c>
       <c r="J9" t="n">
-        <v>119.27535464</v>
+        <v>1283.91124477933</v>
       </c>
       <c r="K9" t="n">
-        <v>190.860977195</v>
+        <v>4965.98582421959</v>
       </c>
       <c r="L9" t="n">
-        <v>768.118887973333</v>
+        <v>14218.5831293864</v>
       </c>
       <c r="M9" t="n">
-        <v>4.02449415937212</v>
+        <v>2.86319446584826</v>
       </c>
       <c r="N9" t="n">
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>512.079258648889</v>
+        <v>9479.05541959096</v>
       </c>
       <c r="P9" t="n">
-        <v>2.68299610624808</v>
+        <v>1.90879631056551</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0599208003450109</v>
@@ -11742,43 +11742,43 @@
         <v>25.1166128453534</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00014864</v>
+        <v>0.00186666666666667</v>
       </c>
       <c r="F2" t="n">
         <v>-7.17617509867241</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00373333333333333</v>
+        <v>0.0468843439779931</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008129156902</v>
+        <v>0.00888377133333333</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00583362533333333</v>
+        <v>-0.0637514986245665</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.017500876</v>
+        <v>-0.191254495873699</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0674564873333333</v>
+        <v>0.732817110393494</v>
       </c>
       <c r="L2" t="n">
-        <v>0.119794995</v>
+        <v>1.28950479009688</v>
       </c>
       <c r="M2" t="n">
-        <v>1.77588545943755</v>
+        <v>1.75965431457307</v>
       </c>
       <c r="N2" t="n">
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02994874875</v>
+        <v>0.32237619752422</v>
       </c>
       <c r="P2" t="n">
-        <v>0.443971364859388</v>
+        <v>0.439913578643267</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.383977857635501</v>
+        <v>0.358286077664292</v>
       </c>
     </row>
     <row r="3">
@@ -11795,43 +11795,43 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0014771913804</v>
+        <v>0.015900876</v>
       </c>
       <c r="F3" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.047702628</v>
+        <v>0.51348361679225</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0014827491229</v>
+        <v>0.015960701</v>
       </c>
       <c r="I3" t="n">
-        <v>0.031921402</v>
+        <v>0.343610355220668</v>
       </c>
       <c r="J3" t="n">
-        <v>0.095764206</v>
+        <v>1.030831065662</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0674564873333333</v>
+        <v>0.732817110393494</v>
       </c>
       <c r="L3" t="n">
-        <v>0.119794995</v>
+        <v>1.28950479009688</v>
       </c>
       <c r="M3" t="n">
-        <v>1.77588545943755</v>
+        <v>1.75965431457307</v>
       </c>
       <c r="N3" t="n">
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02994874875</v>
+        <v>0.32237619752422</v>
       </c>
       <c r="P3" t="n">
-        <v>0.443971364859388</v>
+        <v>0.439913578643267</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.383977857635501</v>
+        <v>0.358286077664292</v>
       </c>
     </row>
     <row r="4">
@@ -11848,43 +11848,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0014883068654</v>
+        <v>0.016020526</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>0.016020526</v>
+        <v>0.172449149623251</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007441534327</v>
+        <v>0.008010263</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008010263</v>
+        <v>0.0862245748116254</v>
       </c>
       <c r="J4" t="n">
-        <v>0.024030789</v>
+        <v>0.258673724434876</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0674564873333333</v>
+        <v>0.732817110393494</v>
       </c>
       <c r="L4" t="n">
-        <v>0.119794995</v>
+        <v>1.28950479009688</v>
       </c>
       <c r="M4" t="n">
-        <v>1.77588545943755</v>
+        <v>1.75965431457307</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02994874875</v>
+        <v>0.32237619752422</v>
       </c>
       <c r="P4" t="n">
-        <v>0.443971364859388</v>
+        <v>0.439913578643267</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.383977857635501</v>
+        <v>0.358286077664292</v>
       </c>
     </row>
   </sheetData>
@@ -11968,16 +11968,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6028127131588</v>
+        <v>6.488834372</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.488834372</v>
+        <v>69.847517459634</v>
       </c>
       <c r="H2" t="n">
-        <v>1.3213419851504</v>
+        <v>14.223272176</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -11986,10 +11986,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>28.446544352</v>
+        <v>306.206074833154</v>
       </c>
       <c r="L2" t="n">
-        <v>21.95770998</v>
+        <v>236.35855737352</v>
       </c>
       <c r="M2" t="n">
         <v>0.771893756524286</v>
@@ -11998,7 +11998,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>3.65961833</v>
+        <v>39.3930928955867</v>
       </c>
       <c r="P2" t="n">
         <v>0.128648959420714</v>
@@ -12021,28 +12021,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>2.039871257142</v>
+        <v>21.95770998</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>21.95770998</v>
+        <v>236.35855737352</v>
       </c>
       <c r="H3" t="n">
-        <v>1.019935628571</v>
+        <v>10.97885499</v>
       </c>
       <c r="I3" t="n">
-        <v>10.97885499</v>
+        <v>118.17927868676</v>
       </c>
       <c r="J3" t="n">
-        <v>21.95770998</v>
+        <v>236.35855737352</v>
       </c>
       <c r="K3" t="n">
-        <v>28.446544352</v>
+        <v>306.206074833154</v>
       </c>
       <c r="L3" t="n">
-        <v>21.95770998</v>
+        <v>236.35855737352</v>
       </c>
       <c r="M3" t="n">
         <v>0.771893756524286</v>
@@ -12051,7 +12051,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>3.65961833</v>
+        <v>39.3930928955867</v>
       </c>
       <c r="P3" t="n">
         <v>0.128648959420714</v>
@@ -12141,16 +12141,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0042811058692</v>
+        <v>0.046082948</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.046082948</v>
+        <v>0.496048955866523</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00875375588475</v>
+        <v>0.0942277275</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12159,10 +12159,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.188455455</v>
+        <v>2.02858401506997</v>
       </c>
       <c r="L2" t="n">
-        <v>0.142372507</v>
+        <v>1.53253505920344</v>
       </c>
       <c r="M2" t="n">
         <v>0.755470341784482</v>
@@ -12171,7 +12171,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0237287511666667</v>
+        <v>0.255422509867241</v>
       </c>
       <c r="P2" t="n">
         <v>0.125911723630747</v>
@@ -12194,28 +12194,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0132264059003</v>
+        <v>0.142372507</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.142372507</v>
+        <v>1.53253505920344</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00661320295015</v>
+        <v>0.0711862535</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0711862535</v>
+        <v>0.766267529601722</v>
       </c>
       <c r="J3" t="n">
-        <v>0.142372507</v>
+        <v>1.53253505920344</v>
       </c>
       <c r="K3" t="n">
-        <v>0.188455455</v>
+        <v>2.02858401506997</v>
       </c>
       <c r="L3" t="n">
-        <v>0.142372507</v>
+        <v>1.53253505920344</v>
       </c>
       <c r="M3" t="n">
         <v>0.755470341784482</v>
@@ -12224,7 +12224,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0237287511666667</v>
+        <v>0.255422509867241</v>
       </c>
       <c r="P3" t="n">
         <v>0.125911723630747</v>
@@ -12314,43 +12314,43 @@
         <v>150.699677072121</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003716</v>
+        <v>0.056</v>
       </c>
       <c r="F2" t="n">
         <v>-109.795479009688</v>
       </c>
       <c r="G2" t="n">
-        <v>0.056</v>
+        <v>8.43918191603875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00164666453554789</v>
+        <v>0.365432627350463</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.180796321448746</v>
+        <v>-40.1228503657129</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.723185285794985</v>
+        <v>-160.491401462851</v>
       </c>
       <c r="K2" t="n">
-        <v>1.43747647007052</v>
+        <v>191.418933996964</v>
       </c>
       <c r="L2" t="n">
-        <v>7.59451429358745</v>
+        <v>415.986792345056</v>
       </c>
       <c r="M2" t="n">
-        <v>5.2832268574211</v>
+        <v>2.17317474117609</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>2.53150476452915</v>
+        <v>138.662264115019</v>
       </c>
       <c r="P2" t="n">
-        <v>1.76107561914036</v>
+        <v>0.72439158039203</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.435279799070269</v>
+        <v>0.195365496377973</v>
       </c>
     </row>
     <row r="3">
@@ -12367,43 +12367,43 @@
         <v>260.495156081808</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00292172907109579</v>
+        <v>0.674865254700926</v>
       </c>
       <c r="F3" t="n">
         <v>246.142805884464</v>
       </c>
       <c r="G3" t="n">
-        <v>0.761096270403855</v>
+        <v>175.799129857507</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00634155699149789</v>
+        <v>0.407482034683796</v>
       </c>
       <c r="I3" t="n">
-        <v>1.56092863156353</v>
+        <v>100.29877136458</v>
       </c>
       <c r="J3" t="n">
-        <v>6.24371452625412</v>
+        <v>401.19508545832</v>
       </c>
       <c r="K3" t="n">
-        <v>1.43747647007052</v>
+        <v>191.418933996964</v>
       </c>
       <c r="L3" t="n">
-        <v>7.59451429358745</v>
+        <v>415.986792345056</v>
       </c>
       <c r="M3" t="n">
-        <v>5.2832268574211</v>
+        <v>2.17317474117609</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>2.53150476452915</v>
+        <v>138.662264115019</v>
       </c>
       <c r="P3" t="n">
-        <v>1.76107561914036</v>
+        <v>0.72439158039203</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.435279799070269</v>
+        <v>0.195365496377973</v>
       </c>
     </row>
     <row r="4">
@@ -12420,43 +12420,43 @@
         <v>14.3523501973448</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0097613849119</v>
+        <v>0.140098814666667</v>
       </c>
       <c r="F4" t="n">
         <v>3.5880875493362</v>
       </c>
       <c r="G4" t="n">
-        <v>0.140098814666667</v>
+        <v>2.01074725032891</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0271897627892</v>
+        <v>0.310190099833333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0975592493333333</v>
+        <v>1.11298923513934</v>
       </c>
       <c r="J4" t="n">
-        <v>0.390236997333333</v>
+        <v>4.45195694055735</v>
       </c>
       <c r="K4" t="n">
-        <v>1.43747647007052</v>
+        <v>191.418933996964</v>
       </c>
       <c r="L4" t="n">
-        <v>7.59451429358745</v>
+        <v>415.986792345056</v>
       </c>
       <c r="M4" t="n">
-        <v>5.2832268574211</v>
+        <v>2.17317474117609</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>2.53150476452915</v>
+        <v>138.662264115019</v>
       </c>
       <c r="P4" t="n">
-        <v>1.76107561914036</v>
+        <v>0.72439158039203</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.435279799070269</v>
+        <v>0.195365496377973</v>
       </c>
     </row>
     <row r="5">
@@ -12473,43 +12473,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0446181406665</v>
+        <v>0.480281385</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>0.480281385</v>
+        <v>5.16987497308934</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02230907033325</v>
+        <v>0.2401406925</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2401406925</v>
+        <v>2.58493748654467</v>
       </c>
       <c r="J5" t="n">
-        <v>0.96056277</v>
+        <v>10.3397499461787</v>
       </c>
       <c r="K5" t="n">
-        <v>1.43747647007052</v>
+        <v>191.418933996964</v>
       </c>
       <c r="L5" t="n">
-        <v>7.59451429358745</v>
+        <v>415.986792345056</v>
       </c>
       <c r="M5" t="n">
-        <v>5.2832268574211</v>
+        <v>2.17317474117609</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>2.53150476452915</v>
+        <v>138.662264115019</v>
       </c>
       <c r="P5" t="n">
-        <v>1.76107561914036</v>
+        <v>0.72439158039203</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.435279799070269</v>
+        <v>0.195365496377973</v>
       </c>
     </row>
   </sheetData>
@@ -12593,16 +12593,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0294423684523</v>
+        <v>0.316925387</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.316925387</v>
+        <v>3.41146810548977</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04155779035945</v>
+        <v>0.4473389705</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12611,10 +12611,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.323481153</v>
+        <v>25.0105613885899</v>
       </c>
       <c r="L2" t="n">
-        <v>2.143204818</v>
+        <v>23.0700195694295</v>
       </c>
       <c r="M2" t="n">
         <v>0.92241110509236</v>
@@ -12623,7 +12623,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5358012045</v>
+        <v>5.76750489235737</v>
       </c>
       <c r="P2" t="n">
         <v>0.23060277627309</v>
@@ -12646,16 +12646,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0536732122666</v>
+        <v>0.577752554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.577752554</v>
+        <v>6.21908023681378</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0932045153307</v>
+        <v>1.003277883</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -12664,10 +12664,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.323481153</v>
+        <v>25.0105613885899</v>
       </c>
       <c r="L3" t="n">
-        <v>2.143204818</v>
+        <v>23.0700195694295</v>
       </c>
       <c r="M3" t="n">
         <v>0.92241110509236</v>
@@ -12676,7 +12676,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5358012045</v>
+        <v>5.76750489235737</v>
       </c>
       <c r="P3" t="n">
         <v>0.23060277627309</v>
@@ -12699,28 +12699,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1327358183948</v>
+        <v>1.428803212</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>1.428803212</v>
+        <v>15.3800130462863</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0663679091974</v>
+        <v>0.714401606</v>
       </c>
       <c r="I4" t="n">
-        <v>0.714401606</v>
+        <v>7.69000652314317</v>
       </c>
       <c r="J4" t="n">
-        <v>2.143204818</v>
+        <v>23.0700195694295</v>
       </c>
       <c r="K4" t="n">
-        <v>2.323481153</v>
+        <v>25.0105613885899</v>
       </c>
       <c r="L4" t="n">
-        <v>2.143204818</v>
+        <v>23.0700195694295</v>
       </c>
       <c r="M4" t="n">
         <v>0.92241110509236</v>
@@ -12729,7 +12729,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5358012045</v>
+        <v>5.76750489235737</v>
       </c>
       <c r="P4" t="n">
         <v>0.23060277627309</v>
@@ -12819,16 +12819,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0038122465367</v>
+        <v>0.041036023</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.041036023</v>
+        <v>0.441722529601722</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00722522090395</v>
+        <v>0.0777741755</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12837,22 +12837,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>14.529711277</v>
+        <v>184.898910430571</v>
       </c>
       <c r="L2" t="n">
-        <v>37.3440569175</v>
+        <v>437.602839558665</v>
       </c>
       <c r="M2" t="n">
-        <v>2.57018575287275</v>
+        <v>2.36671399814973</v>
       </c>
       <c r="N2" t="n">
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>15.560023715625</v>
+        <v>182.334516482777</v>
       </c>
       <c r="P2" t="n">
-        <v>1.07091073036365</v>
+        <v>0.98613083256239</v>
       </c>
       <c r="Q2" t="n">
         <v>0.18268948765714</v>
@@ -12872,40 +12872,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0106381952712</v>
+        <v>0.114512328</v>
       </c>
       <c r="F3" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.114512328</v>
+        <v>1.23264077502691</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0273528214266</v>
+        <v>0.294432954</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.294432954</v>
+        <v>-3.16935364908504</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.47216477</v>
+        <v>-15.8467682454252</v>
       </c>
       <c r="K3" t="n">
-        <v>14.529711277</v>
+        <v>184.898910430571</v>
       </c>
       <c r="L3" t="n">
-        <v>37.3440569175</v>
+        <v>437.602839558665</v>
       </c>
       <c r="M3" t="n">
-        <v>2.57018575287275</v>
+        <v>2.36671399814973</v>
       </c>
       <c r="N3" t="n">
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>15.560023715625</v>
+        <v>182.334516482777</v>
       </c>
       <c r="P3" t="n">
-        <v>1.07091073036365</v>
+        <v>0.98613083256239</v>
       </c>
       <c r="Q3" t="n">
         <v>0.18268948765714</v>
@@ -12925,40 +12925,40 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.044067447582</v>
+        <v>0.47435358</v>
       </c>
       <c r="F4" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G4" t="n">
-        <v>0.94870716</v>
+        <v>10.2121330462863</v>
       </c>
       <c r="H4" t="n">
-        <v>0.114262434313375</v>
+        <v>1.5608755415</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.4599017075</v>
+        <v>-33.6033485791173</v>
       </c>
       <c r="J4" t="n">
-        <v>-12.2995085375</v>
+        <v>-168.016742895587</v>
       </c>
       <c r="K4" t="n">
-        <v>14.529711277</v>
+        <v>184.898910430571</v>
       </c>
       <c r="L4" t="n">
-        <v>37.3440569175</v>
+        <v>437.602839558665</v>
       </c>
       <c r="M4" t="n">
-        <v>2.57018575287275</v>
+        <v>2.36671399814973</v>
       </c>
       <c r="N4" t="n">
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>15.560023715625</v>
+        <v>182.334516482777</v>
       </c>
       <c r="P4" t="n">
-        <v>1.07091073036365</v>
+        <v>0.98613083256239</v>
       </c>
       <c r="Q4" t="n">
         <v>0.18268948765714</v>
@@ -12978,40 +12978,40 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E5" t="n">
-        <v>0.18445742104475</v>
+        <v>2.647397503</v>
       </c>
       <c r="F5" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G5" t="n">
-        <v>7.94219251</v>
+        <v>113.989128223897</v>
       </c>
       <c r="H5" t="n">
-        <v>0.219577499642975</v>
+        <v>2.6945145655</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7271797555</v>
+        <v>58.0089249838536</v>
       </c>
       <c r="J5" t="n">
-        <v>23.6358987775</v>
+        <v>290.044624919268</v>
       </c>
       <c r="K5" t="n">
-        <v>14.529711277</v>
+        <v>184.898910430571</v>
       </c>
       <c r="L5" t="n">
-        <v>37.3440569175</v>
+        <v>437.602839558665</v>
       </c>
       <c r="M5" t="n">
-        <v>2.57018575287275</v>
+        <v>2.36671399814973</v>
       </c>
       <c r="N5" t="n">
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>15.560023715625</v>
+        <v>182.334516482777</v>
       </c>
       <c r="P5" t="n">
-        <v>1.07091073036365</v>
+        <v>0.98613083256239</v>
       </c>
       <c r="Q5" t="n">
         <v>0.18268948765714</v>
@@ -13031,40 +13031,40 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2546975782412</v>
+        <v>2.741631628</v>
       </c>
       <c r="F6" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G6" t="n">
-        <v>5.483263256</v>
+        <v>59.0232858557589</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1273487891206</v>
+        <v>1.370815814</v>
       </c>
       <c r="I6" t="n">
-        <v>2.741631628</v>
+        <v>29.5116429278794</v>
       </c>
       <c r="J6" t="n">
-        <v>13.70815814</v>
+        <v>147.558214639397</v>
       </c>
       <c r="K6" t="n">
-        <v>14.529711277</v>
+        <v>184.898910430571</v>
       </c>
       <c r="L6" t="n">
-        <v>37.3440569175</v>
+        <v>437.602839558665</v>
       </c>
       <c r="M6" t="n">
-        <v>2.57018575287275</v>
+        <v>2.36671399814973</v>
       </c>
       <c r="N6" t="n">
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>15.560023715625</v>
+        <v>182.334516482777</v>
       </c>
       <c r="P6" t="n">
-        <v>1.07091073036365</v>
+        <v>0.98613083256239</v>
       </c>
       <c r="Q6" t="n">
         <v>0.18268948765714</v>
@@ -13151,16 +13151,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0023405091295</v>
+        <v>0.025193855</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.025193855</v>
+        <v>0.271193272335845</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00460427315095</v>
+        <v>0.0495616055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -13169,25 +13169,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.820899027</v>
+        <v>28.867458934338</v>
       </c>
       <c r="L2" t="n">
-        <v>2.582663724</v>
+        <v>41.70070598493</v>
       </c>
       <c r="M2" t="n">
-        <v>1.41834538088311</v>
+        <v>1.44455755803732</v>
       </c>
       <c r="N2" t="n">
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.645665931</v>
+        <v>10.4251764962325</v>
       </c>
       <c r="P2" t="n">
-        <v>0.354586345220778</v>
+        <v>0.361139389509331</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.312589908411607</v>
+        <v>0.353136419222423</v>
       </c>
     </row>
     <row r="3">
@@ -13204,43 +13204,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0068680371724</v>
+        <v>0.073929356</v>
       </c>
       <c r="F3" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.073929356</v>
+        <v>0.795795005382131</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0300928474706</v>
+        <v>0.467408632</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.647854628</v>
+        <v>-10.0626185575888</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.943563884</v>
+        <v>-30.1878556727664</v>
       </c>
       <c r="K3" t="n">
-        <v>1.820899027</v>
+        <v>28.867458934338</v>
       </c>
       <c r="L3" t="n">
-        <v>2.582663724</v>
+        <v>41.70070598493</v>
       </c>
       <c r="M3" t="n">
-        <v>1.41834538088311</v>
+        <v>1.44455755803732</v>
       </c>
       <c r="N3" t="n">
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.645665931</v>
+        <v>10.4251764962325</v>
       </c>
       <c r="P3" t="n">
-        <v>0.354586345220778</v>
+        <v>0.361139389509331</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.312589908411607</v>
+        <v>0.353136419222423</v>
       </c>
     </row>
     <row r="4">
@@ -13257,43 +13257,43 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0533176577688</v>
+        <v>0.860887908</v>
       </c>
       <c r="F4" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G4" t="n">
-        <v>1.721775816</v>
+        <v>27.80047065662</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0266588288844</v>
+        <v>0.430443954</v>
       </c>
       <c r="I4" t="n">
-        <v>0.860887908</v>
+        <v>13.90023532831</v>
       </c>
       <c r="J4" t="n">
-        <v>2.582663724</v>
+        <v>41.70070598493</v>
       </c>
       <c r="K4" t="n">
-        <v>1.820899027</v>
+        <v>28.867458934338</v>
       </c>
       <c r="L4" t="n">
-        <v>2.582663724</v>
+        <v>41.70070598493</v>
       </c>
       <c r="M4" t="n">
-        <v>1.41834538088311</v>
+        <v>1.44455755803732</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.645665931</v>
+        <v>10.4251764962325</v>
       </c>
       <c r="P4" t="n">
-        <v>0.354586345220778</v>
+        <v>0.361139389509331</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.312589908411607</v>
+        <v>0.353136419222423</v>
       </c>
     </row>
   </sheetData>

--- a/2P sheets/all 2P/RUT_Genus_2PSummary.xlsx
+++ b/2P sheets/all 2P/RUT_Genus_2PSummary.xlsx
@@ -3528,28 +3528,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.017851822</v>
+        <v>0.0017851822</v>
       </c>
       <c r="F2" t="n">
         <v>-3.5880875493362</v>
       </c>
       <c r="G2" t="n">
-        <v>0.192161700753498</v>
+        <v>0.0192161700753498</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0530543166833333</v>
+        <v>0.00530543166833333</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.190363533130008</v>
+        <v>-0.0190363533130008</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.52290826504007</v>
+        <v>-0.152290826504007</v>
       </c>
       <c r="K2" t="n">
-        <v>130.073308473508</v>
+        <v>13.0073308473508</v>
       </c>
       <c r="L2" t="n">
-        <v>255.274612493242</v>
+        <v>25.5274612493242</v>
       </c>
       <c r="M2" t="n">
         <v>1.96254416443351</v>
@@ -3558,7 +3558,7 @@
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>170.183074995495</v>
+        <v>17.0183074995495</v>
       </c>
       <c r="P2" t="n">
         <v>1.308362776289</v>
@@ -3581,28 +3581,28 @@
         <v>14.3523501973448</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0882568113666667</v>
+        <v>0.00882568113666667</v>
       </c>
       <c r="F3" t="n">
         <v>3.5880875493362</v>
       </c>
       <c r="G3" t="n">
-        <v>1.2666926640354</v>
+        <v>0.12666926640354</v>
       </c>
       <c r="H3" t="n">
-        <v>0.127993549733333</v>
+        <v>0.0127993549733333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.459252062193518</v>
+        <v>0.0459252062193518</v>
       </c>
       <c r="J3" t="n">
-        <v>3.67401649754814</v>
+        <v>0.367401649754814</v>
       </c>
       <c r="K3" t="n">
-        <v>130.073308473508</v>
+        <v>13.0073308473508</v>
       </c>
       <c r="L3" t="n">
-        <v>255.274612493242</v>
+        <v>25.5274612493242</v>
       </c>
       <c r="M3" t="n">
         <v>1.96254416443351</v>
@@ -3611,7 +3611,7 @@
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>170.183074995495</v>
+        <v>17.0183074995495</v>
       </c>
       <c r="P3" t="n">
         <v>1.308362776289</v>
@@ -3634,16 +3634,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1677302881</v>
+        <v>0.01677302881</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.80549287513455</v>
+        <v>0.180549287513455</v>
       </c>
       <c r="H4" t="n">
-        <v>0.25636735245</v>
+        <v>0.025636735245</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -3652,10 +3652,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>130.073308473508</v>
+        <v>13.0073308473508</v>
       </c>
       <c r="L4" t="n">
-        <v>255.274612493242</v>
+        <v>25.5274612493242</v>
       </c>
       <c r="M4" t="n">
         <v>1.96254416443351</v>
@@ -3664,7 +3664,7 @@
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>170.183074995495</v>
+        <v>17.0183074995495</v>
       </c>
       <c r="P4" t="n">
         <v>1.308362776289</v>
@@ -3687,16 +3687,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3450044168</v>
+        <v>0.03450044168</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.71371815715823</v>
+        <v>0.371371815715824</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6842788624</v>
+        <v>0.06842788624</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>130.073308473508</v>
+        <v>13.0073308473508</v>
       </c>
       <c r="L5" t="n">
-        <v>255.274612493242</v>
+        <v>25.5274612493242</v>
       </c>
       <c r="M5" t="n">
         <v>1.96254416443351</v>
@@ -3717,7 +3717,7 @@
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>170.183074995495</v>
+        <v>17.0183074995495</v>
       </c>
       <c r="P5" t="n">
         <v>1.308362776289</v>
@@ -3740,16 +3740,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>1.023553308</v>
+        <v>0.1023553308</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>11.0177966415501</v>
+        <v>1.10177966415501</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5905737919</v>
+        <v>0.05905737919</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -3758,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>130.073308473508</v>
+        <v>13.0073308473508</v>
       </c>
       <c r="L6" t="n">
-        <v>255.274612493242</v>
+        <v>25.5274612493242</v>
       </c>
       <c r="M6" t="n">
         <v>1.96254416443351</v>
@@ -3770,7 +3770,7 @@
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>170.183074995495</v>
+        <v>17.0183074995495</v>
       </c>
       <c r="P6" t="n">
         <v>1.308362776289</v>
@@ -3793,16 +3793,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1575942758</v>
+        <v>0.01575942758</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.69638617653391</v>
+        <v>0.169638617653391</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2842854659</v>
+        <v>0.22842854659</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -3811,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>130.073308473508</v>
+        <v>13.0073308473508</v>
       </c>
       <c r="L7" t="n">
-        <v>255.274612493242</v>
+        <v>25.5274612493242</v>
       </c>
       <c r="M7" t="n">
         <v>1.96254416443351</v>
@@ -3823,7 +3823,7 @@
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>170.183074995495</v>
+        <v>17.0183074995495</v>
       </c>
       <c r="P7" t="n">
         <v>1.308362776289</v>
@@ -3846,16 +3846,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>4.410976656</v>
+        <v>0.4410976656</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>47.4809112594187</v>
+        <v>4.74809112594187</v>
       </c>
       <c r="H8" t="n">
-        <v>5.127200249</v>
+        <v>0.5127200249</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>130.073308473508</v>
+        <v>13.0073308473508</v>
       </c>
       <c r="L8" t="n">
-        <v>255.274612493242</v>
+        <v>25.5274612493242</v>
       </c>
       <c r="M8" t="n">
         <v>1.96254416443351</v>
@@ -3876,7 +3876,7 @@
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>170.183074995495</v>
+        <v>17.0183074995495</v>
       </c>
       <c r="P8" t="n">
         <v>1.308362776289</v>
@@ -3899,28 +3899,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>5.843423842</v>
+        <v>0.5843423842</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>62.9001489989236</v>
+        <v>6.29001489989236</v>
       </c>
       <c r="H9" t="n">
-        <v>2.921711921</v>
+        <v>0.2921711921</v>
       </c>
       <c r="I9" t="n">
-        <v>31.4500744994618</v>
+        <v>3.14500744994618</v>
       </c>
       <c r="J9" t="n">
-        <v>251.600595995694</v>
+        <v>25.1600595995694</v>
       </c>
       <c r="K9" t="n">
-        <v>130.073308473508</v>
+        <v>13.0073308473508</v>
       </c>
       <c r="L9" t="n">
-        <v>255.274612493242</v>
+        <v>25.5274612493242</v>
       </c>
       <c r="M9" t="n">
         <v>1.96254416443351</v>
@@ -3929,7 +3929,7 @@
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>170.183074995495</v>
+        <v>17.0183074995495</v>
       </c>
       <c r="P9" t="n">
         <v>1.308362776289</v>
@@ -7688,28 +7688,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1818324686</v>
+        <v>0.01818324686</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>3.91458489989236</v>
+        <v>0.391458489989236</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4071673212</v>
+        <v>0.04071673212</v>
       </c>
       <c r="I2" t="n">
-        <v>4.38285598708289</v>
+        <v>0.438285598708289</v>
       </c>
       <c r="J2" t="n">
-        <v>8.76571197416577</v>
+        <v>0.876571197416577</v>
       </c>
       <c r="K2" t="n">
-        <v>10.7230044241119</v>
+        <v>1.0723004424112</v>
       </c>
       <c r="L2" t="n">
-        <v>15.5741314983854</v>
+        <v>1.55741314983854</v>
       </c>
       <c r="M2" t="n">
         <v>1.45240371843595</v>
@@ -7718,7 +7718,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>2.59568858306423</v>
+        <v>0.259568858306423</v>
       </c>
       <c r="P2" t="n">
         <v>0.242067286405992</v>
@@ -7741,28 +7741,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6325021738</v>
+        <v>0.06325021738</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>6.80841952421959</v>
+        <v>0.680841952421959</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3162510869</v>
+        <v>0.03162510869</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4042097621098</v>
+        <v>0.34042097621098</v>
       </c>
       <c r="J3" t="n">
-        <v>6.80841952421959</v>
+        <v>0.680841952421959</v>
       </c>
       <c r="K3" t="n">
-        <v>10.7230044241119</v>
+        <v>1.0723004424112</v>
       </c>
       <c r="L3" t="n">
-        <v>15.5741314983854</v>
+        <v>1.55741314983854</v>
       </c>
       <c r="M3" t="n">
         <v>1.45240371843595</v>
@@ -7771,7 +7771,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>2.59568858306423</v>
+        <v>0.259568858306423</v>
       </c>
       <c r="P3" t="n">
         <v>0.242067286405992</v>
@@ -8712,28 +8712,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0062</v>
+        <v>0.00062</v>
       </c>
       <c r="F2" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0667384284176534</v>
+        <v>0.00667384284176534</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0645452983</v>
+        <v>0.00645452983</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.38956508719053</v>
+        <v>-0.138956508719053</v>
       </c>
       <c r="J2" t="n">
-        <v>-5.55826034876211</v>
+        <v>-0.555826034876211</v>
       </c>
       <c r="K2" t="n">
-        <v>10.716042181916</v>
+        <v>1.0716042181916</v>
       </c>
       <c r="L2" t="n">
-        <v>21.3141955780409</v>
+        <v>2.13141955780409</v>
       </c>
       <c r="M2" t="n">
         <v>1.98899885015476</v>
@@ -8742,7 +8742,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>7.10473185934697</v>
+        <v>0.710473185934697</v>
       </c>
       <c r="P2" t="n">
         <v>0.662999616718253</v>
@@ -8765,28 +8765,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1228905966</v>
+        <v>0.01228905966</v>
       </c>
       <c r="F3" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>3.96847997631862</v>
+        <v>0.396847997631862</v>
       </c>
       <c r="H3" t="n">
-        <v>0.12325262955</v>
+        <v>0.012325262955</v>
       </c>
       <c r="I3" t="n">
-        <v>2.65344735306782</v>
+        <v>0.265344735306782</v>
       </c>
       <c r="J3" t="n">
-        <v>10.6137894122713</v>
+        <v>1.06137894122713</v>
       </c>
       <c r="K3" t="n">
-        <v>10.716042181916</v>
+        <v>1.0716042181916</v>
       </c>
       <c r="L3" t="n">
-        <v>21.3141955780409</v>
+        <v>2.13141955780409</v>
       </c>
       <c r="M3" t="n">
         <v>1.98899885015476</v>
@@ -8795,7 +8795,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>7.10473185934697</v>
+        <v>0.710473185934697</v>
       </c>
       <c r="P3" t="n">
         <v>0.662999616718253</v>
@@ -8818,16 +8818,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1236146625</v>
+        <v>0.01236146625</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.33062069429494</v>
+        <v>0.133062069429494</v>
       </c>
       <c r="H4" t="n">
-        <v>0.31032426445</v>
+        <v>0.031032426445</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -8836,10 +8836,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>10.716042181916</v>
+        <v>1.0716042181916</v>
       </c>
       <c r="L4" t="n">
-        <v>21.3141955780409</v>
+        <v>2.13141955780409</v>
       </c>
       <c r="M4" t="n">
         <v>1.98899885015476</v>
@@ -8848,7 +8848,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>7.10473185934697</v>
+        <v>0.710473185934697</v>
       </c>
       <c r="P4" t="n">
         <v>0.662999616718253</v>
@@ -8871,28 +8871,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4970338664</v>
+        <v>0.04970338664</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>5.35020308288482</v>
+        <v>0.535020308288482</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2485169332</v>
+        <v>0.02485169332</v>
       </c>
       <c r="I5" t="n">
-        <v>2.67510154144241</v>
+        <v>0.267510154144241</v>
       </c>
       <c r="J5" t="n">
-        <v>10.7004061657696</v>
+        <v>1.07004061657696</v>
       </c>
       <c r="K5" t="n">
-        <v>10.716042181916</v>
+        <v>1.0716042181916</v>
       </c>
       <c r="L5" t="n">
-        <v>21.3141955780409</v>
+        <v>2.13141955780409</v>
       </c>
       <c r="M5" t="n">
         <v>1.98899885015476</v>
@@ -8901,7 +8901,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>7.10473185934697</v>
+        <v>0.710473185934697</v>
       </c>
       <c r="P5" t="n">
         <v>0.662999616718253</v>
